--- a/analysis/xlsx/researcher_network_b_analysis.xlsx
+++ b/analysis/xlsx/researcher_network_b_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="13200" windowHeight="4440" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="13200" windowHeight="4440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="60">
   <si>
     <t>Nodes</t>
   </si>
@@ -197,6 +197,9 @@
   <si>
     <t>Community 1-6</t>
   </si>
+  <si>
+    <t>Latex format</t>
+  </si>
 </sst>
 </file>
 
@@ -276,7 +279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -766,11 +769,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="254">
+  <cellXfs count="295">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1338,6 +1352,72 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1436,6 +1516,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1797,10 +1886,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+    <sheetView tabSelected="1" topLeftCell="C67" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1809,16 +1898,18 @@
     <col min="3" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="64.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="2:11">
       <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1">
+      <c r="K1" s="31"/>
+    </row>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1">
       <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1">
+      <c r="K2" s="31"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1">
       <c r="B3" s="72" t="s">
         <v>41</v>
       </c>
@@ -1838,8 +1929,12 @@
         <v>27</v>
       </c>
       <c r="H3" s="31"/>
-    </row>
-    <row r="4" spans="2:8">
+      <c r="J3" s="293" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="31"/>
+    </row>
+    <row r="4" spans="2:11">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1859,8 +1954,13 @@
         <v>260</v>
       </c>
       <c r="H4" s="31"/>
-    </row>
-    <row r="5" spans="2:8">
+      <c r="J4" s="292" t="str">
+        <f>"\textbf{"&amp;B4&amp;"}"&amp;" &amp; "&amp;"{"&amp;C4&amp;"}"&amp;" &amp; "&amp;"{"&amp;F4&amp;"}"&amp;" &amp; "&amp;"{"&amp;G4&amp;"}"&amp;"\\"</f>
+        <v>\textbf{Nodes} &amp; {260} &amp; {260} &amp; {260}\\</v>
+      </c>
+      <c r="K4" s="31"/>
+    </row>
+    <row r="5" spans="2:11">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1880,8 +1980,13 @@
         <v>208</v>
       </c>
       <c r="H5" s="31"/>
-    </row>
-    <row r="6" spans="2:8">
+      <c r="J5" s="221" t="str">
+        <f t="shared" ref="J5:J22" si="0">"\textbf{"&amp;B5&amp;"}"&amp;" &amp; "&amp;"{"&amp;C5&amp;"}"&amp;" &amp; "&amp;"{"&amp;F5&amp;"}"&amp;" &amp; "&amp;"{"&amp;G5&amp;"}"&amp;"\\"</f>
+        <v>\textbf{Edges} &amp; {208} &amp; {208} &amp; {208}\\</v>
+      </c>
+      <c r="K5" s="31"/>
+    </row>
+    <row r="6" spans="2:11">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1901,8 +2006,13 @@
         <v>19</v>
       </c>
       <c r="H6" s="31"/>
-    </row>
-    <row r="7" spans="2:8">
+      <c r="J6" s="221" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Type} &amp; {Undirected} &amp; {Undirected} &amp; {Undirected}\\</v>
+      </c>
+      <c r="K6" s="31"/>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1922,8 +2032,13 @@
         <v>21</v>
       </c>
       <c r="H7" s="31"/>
-    </row>
-    <row r="8" spans="2:8">
+      <c r="J7" s="221" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Weighted} &amp; {No} &amp; {Yes} &amp; {Yes}\\</v>
+      </c>
+      <c r="K7" s="31"/>
+    </row>
+    <row r="8" spans="2:11">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1943,8 +2058,13 @@
         <v>20</v>
       </c>
       <c r="H8" s="31"/>
-    </row>
-    <row r="9" spans="2:8">
+      <c r="J8" s="221" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Connected} &amp; {No} &amp; {No} &amp; {No}\\</v>
+      </c>
+      <c r="K8" s="31"/>
+    </row>
+    <row r="9" spans="2:11">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1964,8 +2084,13 @@
         <v>1.6</v>
       </c>
       <c r="H9" s="31"/>
-    </row>
-    <row r="10" spans="2:8">
+      <c r="J9" s="221" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Average Degree} &amp; {1.6} &amp; {1.6} &amp; {1.6}\\</v>
+      </c>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="2:11">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1985,8 +2110,13 @@
         <v>6.4850000000000003</v>
       </c>
       <c r="H10" s="31"/>
-    </row>
-    <row r="11" spans="2:8">
+      <c r="J10" s="221" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Average Weighted Degree} &amp; {-} &amp; {2.592} &amp; {6.485}\\</v>
+      </c>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2006,8 +2136,13 @@
         <v>33</v>
       </c>
       <c r="H11" s="31"/>
-    </row>
-    <row r="12" spans="2:8">
+      <c r="J11" s="221" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Diameter} &amp; {6} &amp; {16} &amp; {33}\\</v>
+      </c>
+      <c r="K11" s="31"/>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
@@ -2027,8 +2162,13 @@
         <v>1</v>
       </c>
       <c r="H12" s="31"/>
-    </row>
-    <row r="13" spans="2:8">
+      <c r="J12" s="221" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Radius} &amp; {1} &amp; {1} &amp; {1}\\</v>
+      </c>
+      <c r="K12" s="31"/>
+    </row>
+    <row r="13" spans="2:11">
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
@@ -2048,8 +2188,13 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="H13" s="31"/>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="J13" s="221" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Density} &amp; {0.006} &amp; {0.006} &amp; {0.006}\\</v>
+      </c>
+      <c r="K13" s="31"/>
+    </row>
+    <row r="14" spans="2:11">
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -2069,8 +2214,13 @@
         <v>0.94799999999999995</v>
       </c>
       <c r="H14" s="31"/>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="J14" s="221" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Modularity} &amp; {0.965} &amp; {0.955} &amp; {0.948}\\</v>
+      </c>
+      <c r="K14" s="31"/>
+    </row>
+    <row r="15" spans="2:11">
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
@@ -2090,8 +2240,13 @@
         <v>90</v>
       </c>
       <c r="H15" s="31"/>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="J15" s="221" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Communities} &amp; {89} &amp; {91} &amp; {90}\\</v>
+      </c>
+      <c r="K15" s="31"/>
+    </row>
+    <row r="16" spans="2:11">
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
@@ -2111,8 +2266,13 @@
         <v>89</v>
       </c>
       <c r="H16" s="31"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="J16" s="221" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Weak Components} &amp; {89} &amp; {89} &amp; {89}\\</v>
+      </c>
+      <c r="K16" s="31"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
@@ -2132,8 +2292,13 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="H17" s="31"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="J17" s="221" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Node Closeness} &amp; {0.004} &amp; {0.004} &amp; {0.004}\\</v>
+      </c>
+      <c r="K17" s="31"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
@@ -2153,8 +2318,13 @@
         <v>1.675</v>
       </c>
       <c r="H18" s="31"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1">
+      <c r="J18" s="221" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Node Betweenness} &amp; {1.635} &amp; {1.965} &amp; {1.675}\\</v>
+      </c>
+      <c r="K18" s="31"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1">
       <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
@@ -2174,8 +2344,13 @@
         <v>4.2619999999999996</v>
       </c>
       <c r="H19" s="31"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="J19" s="221" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Edge Betweenness} &amp; {4.212} &amp; {4.625} &amp; {4.262}\\</v>
+      </c>
+      <c r="K19" s="31"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
@@ -2195,8 +2370,13 @@
         <v>0.57799999999999996</v>
       </c>
       <c r="H20" s="31"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1">
+      <c r="J20" s="221" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Average Clustering Coefficient} &amp; {0.578} &amp; {0.578} &amp; {0.578}\\</v>
+      </c>
+      <c r="K20" s="31"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1">
       <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
@@ -2216,8 +2396,13 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="H21" s="31"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="J21" s="221" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Eigenvector Centrality} &amp; {0.024} &amp; {0.016} &amp; {0.021}\\</v>
+      </c>
+      <c r="K21" s="31"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
@@ -2237,8 +2422,13 @@
         <v>1.9419999999999999</v>
       </c>
       <c r="H22" s="31"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="J22" s="221" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Average Path Length} &amp; {1.942} &amp; {1.942} &amp; {1.942}\\</v>
+      </c>
+      <c r="K22" s="31"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="B23" s="74"/>
       <c r="C23" s="78"/>
       <c r="D23" s="78"/>
@@ -2246,8 +2436,9 @@
       <c r="F23" s="79"/>
       <c r="G23" s="79"/>
       <c r="H23" s="31"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1">
+      <c r="K23" s="31"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1">
       <c r="A24" s="10"/>
       <c r="B24" s="80"/>
       <c r="C24" s="82"/>
@@ -2256,8 +2447,11 @@
       <c r="F24" s="83"/>
       <c r="G24" s="83"/>
       <c r="H24" s="32"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="222"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="32"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="B25" s="74"/>
       <c r="C25" s="78"/>
       <c r="D25" s="78"/>
@@ -2265,11 +2459,13 @@
       <c r="F25" s="79"/>
       <c r="G25" s="79"/>
       <c r="H25" s="31"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1">
+      <c r="K25" s="31"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="H26" s="31"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1">
+      <c r="K26" s="31"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1">
       <c r="B27" s="72" t="s">
         <v>42</v>
       </c>
@@ -2289,8 +2485,12 @@
         <v>27</v>
       </c>
       <c r="H27" s="31"/>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="J27" s="293" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="31"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="B28" s="1" t="s">
         <v>0</v>
       </c>
@@ -2310,8 +2510,13 @@
         <v>2434</v>
       </c>
       <c r="H28" s="31"/>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="J28" s="292" t="str">
+        <f>"\textbf{"&amp;B28&amp;"}"&amp;" &amp; "&amp;"{"&amp;C28&amp;"}"&amp;" &amp; "&amp;"{"&amp;F28&amp;"}"&amp;" &amp; "&amp;"{"&amp;G28&amp;"}"&amp;"\\"</f>
+        <v>\textbf{Nodes} &amp; {2434} &amp; {2434} &amp; {2434}\\</v>
+      </c>
+      <c r="K28" s="31"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
@@ -2331,8 +2536,13 @@
         <v>4919</v>
       </c>
       <c r="H29" s="31"/>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="J29" s="221" t="str">
+        <f t="shared" ref="J29:J46" si="1">"\textbf{"&amp;B29&amp;"}"&amp;" &amp; "&amp;"{"&amp;C29&amp;"}"&amp;" &amp; "&amp;"{"&amp;F29&amp;"}"&amp;" &amp; "&amp;"{"&amp;G29&amp;"}"&amp;"\\"</f>
+        <v>\textbf{Edges} &amp; {4919} &amp; {4919} &amp; {4919}\\</v>
+      </c>
+      <c r="K29" s="31"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="B30" s="1" t="s">
         <v>2</v>
       </c>
@@ -2352,8 +2562,13 @@
         <v>19</v>
       </c>
       <c r="H30" s="31"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="J30" s="221" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Type} &amp; {Undirected} &amp; {Undirected} &amp; {Undirected}\\</v>
+      </c>
+      <c r="K30" s="31"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="B31" s="1" t="s">
         <v>3</v>
       </c>
@@ -2373,8 +2588,13 @@
         <v>21</v>
       </c>
       <c r="H31" s="31"/>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="J31" s="221" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Weighted} &amp; {No} &amp; {Yes} &amp; {Yes}\\</v>
+      </c>
+      <c r="K31" s="31"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="B32" s="1" t="s">
         <v>4</v>
       </c>
@@ -2394,8 +2614,13 @@
         <v>20</v>
       </c>
       <c r="H32" s="31"/>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="J32" s="221" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Connected} &amp; {No} &amp; {No} &amp; {No}\\</v>
+      </c>
+      <c r="K32" s="31"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
@@ -2415,8 +2640,13 @@
         <v>4.0419999999999998</v>
       </c>
       <c r="H33" s="31"/>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="J33" s="221" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Average Degree} &amp; {4.042} &amp; {4.042} &amp; {4.042}\\</v>
+      </c>
+      <c r="K33" s="31"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="B34" s="1" t="s">
         <v>6</v>
       </c>
@@ -2436,8 +2666,13 @@
         <v>10.132999999999999</v>
       </c>
       <c r="H34" s="31"/>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="J34" s="221" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Average Weighted Degree} &amp; {-} &amp; {7.794} &amp; {10.133}\\</v>
+      </c>
+      <c r="K34" s="31"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
@@ -2457,8 +2692,13 @@
         <v>55</v>
       </c>
       <c r="H35" s="31"/>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="J35" s="221" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Diameter} &amp; {23} &amp; {36} &amp; {55}\\</v>
+      </c>
+      <c r="K35" s="31"/>
+    </row>
+    <row r="36" spans="1:11">
       <c r="B36" s="1" t="s">
         <v>8</v>
       </c>
@@ -2478,8 +2718,13 @@
         <v>1</v>
       </c>
       <c r="H36" s="31"/>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="J36" s="221" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Radius} &amp; {1} &amp; {1} &amp; {1}\\</v>
+      </c>
+      <c r="K36" s="31"/>
+    </row>
+    <row r="37" spans="1:11">
       <c r="B37" s="1" t="s">
         <v>9</v>
       </c>
@@ -2499,8 +2744,13 @@
         <v>2E-3</v>
       </c>
       <c r="H37" s="31"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="J37" s="221" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Density} &amp; {0.002} &amp; {0.002} &amp; {0.002}\\</v>
+      </c>
+      <c r="K37" s="31"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="B38" s="1" t="s">
         <v>10</v>
       </c>
@@ -2520,8 +2770,13 @@
         <v>0.96199999999999997</v>
       </c>
       <c r="H38" s="31"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="J38" s="221" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Modularity} &amp; {0.979} &amp; {0.977} &amp; {0.962}\\</v>
+      </c>
+      <c r="K38" s="31"/>
+    </row>
+    <row r="39" spans="1:11">
       <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
@@ -2541,8 +2796,13 @@
         <v>485</v>
       </c>
       <c r="H39" s="31"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="J39" s="221" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Communities} &amp; {483} &amp; {485} &amp; {485}\\</v>
+      </c>
+      <c r="K39" s="31"/>
+    </row>
+    <row r="40" spans="1:11">
       <c r="B40" s="1" t="s">
         <v>12</v>
       </c>
@@ -2562,8 +2822,13 @@
         <v>473</v>
       </c>
       <c r="H40" s="31"/>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="J40" s="221" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Weak Components} &amp; {473} &amp; {473} &amp; {473}\\</v>
+      </c>
+      <c r="K40" s="31"/>
+    </row>
+    <row r="41" spans="1:11">
       <c r="B41" s="1" t="s">
         <v>13</v>
       </c>
@@ -2583,8 +2848,13 @@
         <v>0</v>
       </c>
       <c r="H41" s="31"/>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="J41" s="221" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Node Closeness} &amp; {0} &amp; {0} &amp; {0}\\</v>
+      </c>
+      <c r="K41" s="31"/>
+    </row>
+    <row r="42" spans="1:11">
       <c r="B42" s="1" t="s">
         <v>14</v>
       </c>
@@ -2604,8 +2874,13 @@
         <v>128.327</v>
       </c>
       <c r="H42" s="31"/>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1">
+      <c r="J42" s="221" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Node Betweenness} &amp; {124.889} &amp; {138.711} &amp; {128.327}\\</v>
+      </c>
+      <c r="K42" s="31"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" thickBot="1">
       <c r="B43" s="3" t="s">
         <v>15</v>
       </c>
@@ -2625,8 +2900,13 @@
         <v>74.02</v>
       </c>
       <c r="H43" s="31"/>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="J43" s="221" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Edge Betweenness} &amp; {72.318} &amp; {79.157} &amp; {74.02}\\</v>
+      </c>
+      <c r="K43" s="31"/>
+    </row>
+    <row r="44" spans="1:11">
       <c r="B44" s="2" t="s">
         <v>16</v>
       </c>
@@ -2646,8 +2926,13 @@
         <v>0.748</v>
       </c>
       <c r="H44" s="31"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1">
+      <c r="J44" s="221" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Average Clustering Coefficient} &amp; {0.748} &amp; {0.748} &amp; {0.748}\\</v>
+      </c>
+      <c r="K44" s="31"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" thickBot="1">
       <c r="B45" s="3" t="s">
         <v>17</v>
       </c>
@@ -2667,8 +2952,13 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="H45" s="31"/>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="J45" s="221" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Eigenvector Centrality} &amp; {0.009} &amp; {0.007} &amp; {0.007}\\</v>
+      </c>
+      <c r="K45" s="31"/>
+    </row>
+    <row r="46" spans="1:11">
       <c r="B46" s="2" t="s">
         <v>18</v>
       </c>
@@ -2688,8 +2978,13 @@
         <v>6.8739999999999997</v>
       </c>
       <c r="H46" s="31"/>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="J46" s="221" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Average Path Length} &amp; {6.874} &amp; {6.874} &amp; {6.874}\\</v>
+      </c>
+      <c r="K46" s="31"/>
+    </row>
+    <row r="47" spans="1:11">
       <c r="B47" s="74"/>
       <c r="C47" s="78"/>
       <c r="D47" s="78"/>
@@ -2697,8 +2992,9 @@
       <c r="F47" s="79"/>
       <c r="G47" s="79"/>
       <c r="H47" s="31"/>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" thickBot="1">
+      <c r="K47" s="31"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" thickBot="1">
       <c r="A48" s="10"/>
       <c r="B48" s="80"/>
       <c r="C48" s="82"/>
@@ -2707,8 +3003,11 @@
       <c r="F48" s="83"/>
       <c r="G48" s="83"/>
       <c r="H48" s="32"/>
-    </row>
-    <row r="49" spans="2:8">
+      <c r="I48" s="222"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="32"/>
+    </row>
+    <row r="49" spans="2:11">
       <c r="B49" s="74"/>
       <c r="C49" s="78"/>
       <c r="D49" s="78"/>
@@ -2716,11 +3015,13 @@
       <c r="F49" s="79"/>
       <c r="G49" s="79"/>
       <c r="H49" s="70"/>
-    </row>
-    <row r="50" spans="2:8" ht="15.75" thickBot="1">
+      <c r="K49" s="31"/>
+    </row>
+    <row r="50" spans="2:11" ht="15.75" thickBot="1">
       <c r="H50" s="31"/>
-    </row>
-    <row r="51" spans="2:8" ht="15.75" thickBot="1">
+      <c r="K50" s="31"/>
+    </row>
+    <row r="51" spans="2:11" ht="15.75" thickBot="1">
       <c r="B51" s="72" t="s">
         <v>43</v>
       </c>
@@ -2740,8 +3041,12 @@
         <v>27</v>
       </c>
       <c r="H51" s="31"/>
-    </row>
-    <row r="52" spans="2:8">
+      <c r="J51" s="293" t="s">
+        <v>59</v>
+      </c>
+      <c r="K51" s="31"/>
+    </row>
+    <row r="52" spans="2:11">
       <c r="B52" s="1" t="s">
         <v>0</v>
       </c>
@@ -2761,8 +3066,13 @@
         <v>1847</v>
       </c>
       <c r="H52" s="31"/>
-    </row>
-    <row r="53" spans="2:8">
+      <c r="J52" s="292" t="str">
+        <f>"\textbf{"&amp;B52&amp;"}"&amp;" &amp; "&amp;"{"&amp;C52&amp;"}"&amp;" &amp; "&amp;"{"&amp;F52&amp;"}"&amp;" &amp; "&amp;"{"&amp;G52&amp;"}"&amp;"\\"</f>
+        <v>\textbf{Nodes} &amp; {1847} &amp; {1847} &amp; {1847}\\</v>
+      </c>
+      <c r="K52" s="31"/>
+    </row>
+    <row r="53" spans="2:11">
       <c r="B53" s="1" t="s">
         <v>1</v>
       </c>
@@ -2782,8 +3092,13 @@
         <v>2002</v>
       </c>
       <c r="H53" s="31"/>
-    </row>
-    <row r="54" spans="2:8">
+      <c r="J53" s="221" t="str">
+        <f t="shared" ref="J53:J70" si="2">"\textbf{"&amp;B53&amp;"}"&amp;" &amp; "&amp;"{"&amp;C53&amp;"}"&amp;" &amp; "&amp;"{"&amp;F53&amp;"}"&amp;" &amp; "&amp;"{"&amp;G53&amp;"}"&amp;"\\"</f>
+        <v>\textbf{Edges} &amp; {2002} &amp; {2002} &amp; {2002}\\</v>
+      </c>
+      <c r="K53" s="31"/>
+    </row>
+    <row r="54" spans="2:11">
       <c r="B54" s="1" t="s">
         <v>2</v>
       </c>
@@ -2803,8 +3118,13 @@
         <v>19</v>
       </c>
       <c r="H54" s="31"/>
-    </row>
-    <row r="55" spans="2:8">
+      <c r="J54" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Type} &amp; {Undirected} &amp; {Undirected} &amp; {Undirected}\\</v>
+      </c>
+      <c r="K54" s="31"/>
+    </row>
+    <row r="55" spans="2:11">
       <c r="B55" s="1" t="s">
         <v>3</v>
       </c>
@@ -2824,8 +3144,13 @@
         <v>21</v>
       </c>
       <c r="H55" s="31"/>
-    </row>
-    <row r="56" spans="2:8">
+      <c r="J55" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Weighted} &amp; {No} &amp; {Yes} &amp; {Yes}\\</v>
+      </c>
+      <c r="K55" s="31"/>
+    </row>
+    <row r="56" spans="2:11">
       <c r="B56" s="1" t="s">
         <v>4</v>
       </c>
@@ -2845,8 +3170,13 @@
         <v>20</v>
       </c>
       <c r="H56" s="31"/>
-    </row>
-    <row r="57" spans="2:8">
+      <c r="J56" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Connected} &amp; {No} &amp; {No} &amp; {No}\\</v>
+      </c>
+      <c r="K56" s="31"/>
+    </row>
+    <row r="57" spans="2:11">
       <c r="B57" s="1" t="s">
         <v>5</v>
       </c>
@@ -2866,8 +3196,13 @@
         <v>2.1680000000000001</v>
       </c>
       <c r="H57" s="31"/>
-    </row>
-    <row r="58" spans="2:8">
+      <c r="J57" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Average Degree} &amp; {2.168} &amp; {2.168} &amp; {2.168}\\</v>
+      </c>
+      <c r="K57" s="31"/>
+    </row>
+    <row r="58" spans="2:11">
       <c r="B58" s="1" t="s">
         <v>6</v>
       </c>
@@ -2887,8 +3222,13 @@
         <v>3.609</v>
       </c>
       <c r="H58" s="31"/>
-    </row>
-    <row r="59" spans="2:8">
+      <c r="J58" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Average Weighted Degree} &amp; {-} &amp; {2.798} &amp; {3.609}\\</v>
+      </c>
+      <c r="K58" s="31"/>
+    </row>
+    <row r="59" spans="2:11">
       <c r="B59" s="1" t="s">
         <v>7</v>
       </c>
@@ -2908,8 +3248,13 @@
         <v>21</v>
       </c>
       <c r="H59" s="31"/>
-    </row>
-    <row r="60" spans="2:8">
+      <c r="J59" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Diameter} &amp; {12} &amp; {18} &amp; {21}\\</v>
+      </c>
+      <c r="K59" s="31"/>
+    </row>
+    <row r="60" spans="2:11">
       <c r="B60" s="1" t="s">
         <v>8</v>
       </c>
@@ -2929,8 +3274,13 @@
         <v>1</v>
       </c>
       <c r="H60" s="31"/>
-    </row>
-    <row r="61" spans="2:8">
+      <c r="J60" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Radius} &amp; {1} &amp; {1} &amp; {1}\\</v>
+      </c>
+      <c r="K60" s="31"/>
+    </row>
+    <row r="61" spans="2:11">
       <c r="B61" s="1" t="s">
         <v>9</v>
       </c>
@@ -2950,8 +3300,13 @@
         <v>1E-3</v>
       </c>
       <c r="H61" s="31"/>
-    </row>
-    <row r="62" spans="2:8">
+      <c r="J61" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Density} &amp; {0.001} &amp; {0.001} &amp; {0.001}\\</v>
+      </c>
+      <c r="K61" s="31"/>
+    </row>
+    <row r="62" spans="2:11">
       <c r="B62" s="1" t="s">
         <v>10</v>
       </c>
@@ -2971,8 +3326,13 @@
         <v>0.96199999999999997</v>
       </c>
       <c r="H62" s="31"/>
-    </row>
-    <row r="63" spans="2:8">
+      <c r="J62" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Modularity} &amp; {0.979} &amp; {0.978} &amp; {0.962}\\</v>
+      </c>
+      <c r="K62" s="31"/>
+    </row>
+    <row r="63" spans="2:11">
       <c r="B63" s="1" t="s">
         <v>11</v>
       </c>
@@ -2992,8 +3352,13 @@
         <v>564</v>
       </c>
       <c r="H63" s="31"/>
-    </row>
-    <row r="64" spans="2:8">
+      <c r="J63" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Communities} &amp; {563} &amp; {563} &amp; {564}\\</v>
+      </c>
+      <c r="K63" s="31"/>
+    </row>
+    <row r="64" spans="2:11">
       <c r="B64" s="1" t="s">
         <v>12</v>
       </c>
@@ -3013,8 +3378,13 @@
         <v>559</v>
       </c>
       <c r="H64" s="31"/>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="J64" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Weak Components} &amp; {559} &amp; {559} &amp; {559}\\</v>
+      </c>
+      <c r="K64" s="31"/>
+    </row>
+    <row r="65" spans="1:11">
       <c r="B65" s="1" t="s">
         <v>13</v>
       </c>
@@ -3034,8 +3404,13 @@
         <v>1E-3</v>
       </c>
       <c r="H65" s="31"/>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="J65" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Node Closeness} &amp; {0.001} &amp; {0.001} &amp; {0.001}\\</v>
+      </c>
+      <c r="K65" s="31"/>
+    </row>
+    <row r="66" spans="1:11">
       <c r="B66" s="1" t="s">
         <v>14</v>
       </c>
@@ -3055,8 +3430,13 @@
         <v>13.519</v>
       </c>
       <c r="H66" s="31"/>
-    </row>
-    <row r="67" spans="1:8" ht="15.75" thickBot="1">
+      <c r="J66" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Node Betweenness} &amp; {12.853} &amp; {14.214} &amp; {13.519}\\</v>
+      </c>
+      <c r="K66" s="31"/>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" thickBot="1">
       <c r="B67" s="3" t="s">
         <v>15</v>
       </c>
@@ -3076,8 +3456,13 @@
         <v>16.902999999999999</v>
       </c>
       <c r="H67" s="31"/>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="J67" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Edge Betweenness} &amp; {16.289} &amp; {17.545} &amp; {16.903}\\</v>
+      </c>
+      <c r="K67" s="31"/>
+    </row>
+    <row r="68" spans="1:11">
       <c r="B68" s="2" t="s">
         <v>16</v>
       </c>
@@ -3097,8 +3482,13 @@
         <v>0.64800000000000002</v>
       </c>
       <c r="H68" s="31"/>
-    </row>
-    <row r="69" spans="1:8" ht="15.75" thickBot="1">
+      <c r="J68" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Average Clustering Coefficient} &amp; {0.648} &amp; {0.648} &amp; {0.648}\\</v>
+      </c>
+      <c r="K68" s="31"/>
+    </row>
+    <row r="69" spans="1:11" ht="15.75" thickBot="1">
       <c r="B69" s="3" t="s">
         <v>17</v>
       </c>
@@ -3118,8 +3508,13 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="H69" s="31"/>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="J69" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Eigenvector Centrality} &amp; {0.007} &amp; {0.005} &amp; {0.006}\\</v>
+      </c>
+      <c r="K69" s="31"/>
+    </row>
+    <row r="70" spans="1:11">
       <c r="B70" s="2" t="s">
         <v>18</v>
       </c>
@@ -3139,11 +3534,17 @@
         <v>3.6760000000000002</v>
       </c>
       <c r="H70" s="31"/>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="J70" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Average Path Length} &amp; {3.676} &amp; {3.676} &amp; {3.676}\\</v>
+      </c>
+      <c r="K70" s="31"/>
+    </row>
+    <row r="71" spans="1:11">
       <c r="H71" s="31"/>
-    </row>
-    <row r="72" spans="1:8" ht="15.75" thickBot="1">
+      <c r="K71" s="31"/>
+    </row>
+    <row r="72" spans="1:11" ht="15.75" thickBot="1">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -3152,6 +3553,9 @@
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
       <c r="H72" s="32"/>
+      <c r="I72" s="222"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3161,10 +3565,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:L36"/>
+    <sheetView topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3172,41 +3576,48 @@
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="75.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:16">
       <c r="M1" s="31"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1">
+      <c r="P1" s="224"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1">
       <c r="M2" s="31"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+      <c r="P2" s="224"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="B3" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="221" t="s">
+      <c r="C3" s="259" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="222"/>
-      <c r="E3" s="222" t="s">
+      <c r="D3" s="260"/>
+      <c r="E3" s="260" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="222"/>
-      <c r="G3" s="222" t="s">
+      <c r="F3" s="260"/>
+      <c r="G3" s="260" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="222"/>
-      <c r="I3" s="222" t="s">
+      <c r="H3" s="260"/>
+      <c r="I3" s="260" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="222"/>
-      <c r="K3" s="222" t="s">
+      <c r="J3" s="260"/>
+      <c r="K3" s="260" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="222"/>
+      <c r="L3" s="260"/>
       <c r="M3" s="31"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="O3" s="293" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="224"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="B4" s="17" t="s">
         <v>28</v>
       </c>
@@ -3241,8 +3652,13 @@
         <v>0.93600000000000005</v>
       </c>
       <c r="M4" s="31"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="O4" s="292" t="str">
+        <f>"\textbf"&amp;"{"&amp;B4&amp;"}"&amp;" &amp; "&amp;"{"&amp;C4&amp;"}"&amp;" &amp; "&amp;"{"&amp;D4&amp;"}"&amp;" &amp; "&amp;"{"&amp;I4&amp;"}"&amp;" &amp; "&amp;"{"&amp;J4&amp;"}"&amp;" &amp; "&amp;"{"&amp;K4&amp;"}"&amp;" &amp; "&amp;"{"&amp;L4&amp;"}"&amp;"\\"</f>
+        <v>\textbf{Infomap} &amp; {93} &amp; {0.951} &amp; {93} &amp; {0.95} &amp; {93} &amp; {0.936}\\</v>
+      </c>
+      <c r="P4" s="224"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="B5" s="114" t="s">
         <v>29</v>
       </c>
@@ -3277,8 +3693,13 @@
         <v>22</v>
       </c>
       <c r="M5" s="31"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="O5" s="228" t="str">
+        <f t="shared" ref="O5:O11" si="0">"\textbf"&amp;"{"&amp;B5&amp;"}"&amp;" &amp; "&amp;"{"&amp;C5&amp;"}"&amp;" &amp; "&amp;"{"&amp;D5&amp;"}"&amp;" &amp; "&amp;"{"&amp;I5&amp;"}"&amp;" &amp; "&amp;"{"&amp;J5&amp;"}"&amp;" &amp; "&amp;"{"&amp;K5&amp;"}"&amp;" &amp; "&amp;"{"&amp;L5&amp;"}"&amp;"\\"</f>
+        <v>\textbf{Spinglass} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="P5" s="224"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="B6" s="114" t="s">
         <v>30</v>
       </c>
@@ -3313,8 +3734,13 @@
         <v>0.94799999999999995</v>
       </c>
       <c r="M6" s="31"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="O6" s="228" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Louvain} &amp; {89} &amp; {0.965} &amp; {91} &amp; {0.955} &amp; {90} &amp; {0.948}\\</v>
+      </c>
+      <c r="P6" s="224"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="B7" s="114" t="s">
         <v>31</v>
       </c>
@@ -3349,8 +3775,13 @@
         <v>0.92400000000000004</v>
       </c>
       <c r="M7" s="31"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="O7" s="228" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Label Propagation} &amp; {91} &amp; {0.955} &amp; {91} &amp; {0.955} &amp; {95} &amp; {0.924}\\</v>
+      </c>
+      <c r="P7" s="224"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="B8" s="114" t="s">
         <v>32</v>
       </c>
@@ -3385,8 +3816,13 @@
         <v>0.94799999999999995</v>
       </c>
       <c r="M8" s="31"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="O8" s="228" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Leading Eigenvector} &amp; {89} &amp; {0.965} &amp; {91} &amp; {0.955} &amp; {90} &amp; {0.948}\\</v>
+      </c>
+      <c r="P8" s="224"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="B9" s="114" t="s">
         <v>33</v>
       </c>
@@ -3421,8 +3857,13 @@
         <v>0.94699999999999995</v>
       </c>
       <c r="M9" s="31"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="O9" s="228" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Walktrap} &amp; {89} &amp; {0.965} &amp; {94} &amp; {0.947} &amp; {89} &amp; {0.947}\\</v>
+      </c>
+      <c r="P9" s="224"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="B10" s="114" t="s">
         <v>34</v>
       </c>
@@ -3457,8 +3898,13 @@
         <v>0.94799999999999995</v>
       </c>
       <c r="M10" s="31"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="O10" s="228" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Fast Greedy} &amp; {89} &amp; {0.965} &amp; {91} &amp; {0.955} &amp; {90} &amp; {0.948}\\</v>
+      </c>
+      <c r="P10" s="224"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="B11" s="114" t="s">
         <v>15</v>
       </c>
@@ -3493,8 +3939,13 @@
         <v>22</v>
       </c>
       <c r="M11" s="31"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="O11" s="228" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Edge Betweenness} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="P11" s="224"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="B12" s="74"/>
       <c r="C12" s="77"/>
       <c r="D12" s="78"/>
@@ -3507,8 +3958,9 @@
       <c r="K12" s="77"/>
       <c r="L12" s="79"/>
       <c r="M12" s="31"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1">
+      <c r="P12" s="224"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" thickBot="1">
       <c r="A13" s="10"/>
       <c r="B13" s="80"/>
       <c r="C13" s="81"/>
@@ -3522,8 +3974,11 @@
       <c r="K13" s="81"/>
       <c r="L13" s="83"/>
       <c r="M13" s="32"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="227"/>
+      <c r="O13" s="223"/>
+      <c r="P13" s="225"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="71"/>
       <c r="B14" s="74"/>
       <c r="C14" s="77"/>
@@ -3537,37 +3992,43 @@
       <c r="K14" s="77"/>
       <c r="L14" s="79"/>
       <c r="M14" s="70"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1">
+      <c r="P14" s="226"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" thickBot="1">
       <c r="M15" s="31"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1">
+      <c r="P15" s="224"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" thickBot="1">
       <c r="B16" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="221" t="s">
+      <c r="C16" s="259" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="222"/>
-      <c r="E16" s="222" t="s">
+      <c r="D16" s="260"/>
+      <c r="E16" s="260" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="222"/>
-      <c r="G16" s="222" t="s">
+      <c r="F16" s="260"/>
+      <c r="G16" s="260" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="222"/>
-      <c r="I16" s="222" t="s">
+      <c r="H16" s="260"/>
+      <c r="I16" s="260" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="222"/>
-      <c r="K16" s="222" t="s">
+      <c r="J16" s="260"/>
+      <c r="K16" s="260" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="222"/>
+      <c r="L16" s="260"/>
       <c r="M16" s="31"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="O16" s="293" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" s="224"/>
+    </row>
+    <row r="17" spans="1:16">
       <c r="B17" s="17" t="s">
         <v>28</v>
       </c>
@@ -3602,8 +4063,13 @@
         <v>0.94699999999999995</v>
       </c>
       <c r="M17" s="31"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="O17" s="292" t="str">
+        <f>"\textbf"&amp;"{"&amp;B17&amp;"}"&amp;" &amp; "&amp;"{"&amp;C17&amp;"}"&amp;" &amp; "&amp;"{"&amp;D17&amp;"}"&amp;" &amp; "&amp;"{"&amp;I17&amp;"}"&amp;" &amp; "&amp;"{"&amp;J17&amp;"}"&amp;" &amp; "&amp;"{"&amp;K17&amp;"}"&amp;" &amp; "&amp;"{"&amp;L17&amp;"}"&amp;"\\"</f>
+        <v>\textbf{Infomap} &amp; {545} &amp; {0.961} &amp; {554} &amp; {0.962} &amp; {549} &amp; {0.947}\\</v>
+      </c>
+      <c r="P17" s="224"/>
+    </row>
+    <row r="18" spans="1:16">
       <c r="B18" s="114" t="s">
         <v>29</v>
       </c>
@@ -3638,8 +4104,13 @@
         <v>22</v>
       </c>
       <c r="M18" s="31"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="O18" s="228" t="str">
+        <f t="shared" ref="O18:O24" si="1">"\textbf"&amp;"{"&amp;B18&amp;"}"&amp;" &amp; "&amp;"{"&amp;C18&amp;"}"&amp;" &amp; "&amp;"{"&amp;D18&amp;"}"&amp;" &amp; "&amp;"{"&amp;I18&amp;"}"&amp;" &amp; "&amp;"{"&amp;J18&amp;"}"&amp;" &amp; "&amp;"{"&amp;K18&amp;"}"&amp;" &amp; "&amp;"{"&amp;L18&amp;"}"&amp;"\\"</f>
+        <v>\textbf{Spinglass} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="P18" s="224"/>
+    </row>
+    <row r="19" spans="1:16">
       <c r="B19" s="114" t="s">
         <v>30</v>
       </c>
@@ -3674,8 +4145,13 @@
         <v>0.96199999999999997</v>
       </c>
       <c r="M19" s="31"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="O19" s="228" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Louvain} &amp; {483} &amp; {0.979} &amp; {485} &amp; {0.977} &amp; {485} &amp; {0.962}\\</v>
+      </c>
+      <c r="P19" s="224"/>
+    </row>
+    <row r="20" spans="1:16">
       <c r="B20" s="114" t="s">
         <v>31</v>
       </c>
@@ -3710,8 +4186,13 @@
         <v>0.93799999999999994</v>
       </c>
       <c r="M20" s="31"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="O20" s="228" t="str">
+        <f>"\textbf"&amp;"{"&amp;B20&amp;"}"&amp;" &amp; "&amp;"{"&amp;C20&amp;"}"&amp;" &amp; "&amp;"{"&amp;D20&amp;"}"&amp;" &amp; "&amp;"{"&amp;I20&amp;"}"&amp;" &amp; "&amp;"{"&amp;J20&amp;"}"&amp;" &amp; "&amp;"{"&amp;K20&amp;"}"&amp;" &amp; "&amp;"{"&amp;L20&amp;"}"&amp;"\\"</f>
+        <v>\textbf{Label Propagation} &amp; {553} &amp; {0.949} &amp; {579} &amp; {0.95} &amp; {552} &amp; {0.938}\\</v>
+      </c>
+      <c r="P20" s="224"/>
+    </row>
+    <row r="21" spans="1:16">
       <c r="B21" s="114" t="s">
         <v>32</v>
       </c>
@@ -3746,8 +4227,13 @@
         <v>0.96099999999999997</v>
       </c>
       <c r="M21" s="31"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="O21" s="228" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Leading Eigenvector} &amp; {486} &amp; {0.976} &amp; {492} &amp; {0.974} &amp; {488} &amp; {0.961}\\</v>
+      </c>
+      <c r="P21" s="224"/>
+    </row>
+    <row r="22" spans="1:16">
       <c r="B22" s="114" t="s">
         <v>33</v>
       </c>
@@ -3782,8 +4268,13 @@
         <v>0.95199999999999996</v>
       </c>
       <c r="M22" s="31"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="O22" s="228" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Walktrap} &amp; {525} &amp; {0.968} &amp; {539} &amp; {0.968} &amp; {532} &amp; {0.952}\\</v>
+      </c>
+      <c r="P22" s="224"/>
+    </row>
+    <row r="23" spans="1:16">
       <c r="B23" s="114" t="s">
         <v>34</v>
       </c>
@@ -3818,8 +4309,13 @@
         <v>0.96199999999999997</v>
       </c>
       <c r="M23" s="31"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="O23" s="228" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Fast Greedy} &amp; {484} &amp; {0.978} &amp; {485} &amp; {0.976} &amp; {484} &amp; {0.962}\\</v>
+      </c>
+      <c r="P23" s="224"/>
+    </row>
+    <row r="24" spans="1:16">
       <c r="B24" s="114" t="s">
         <v>15</v>
       </c>
@@ -3854,8 +4350,13 @@
         <v>22</v>
       </c>
       <c r="M24" s="31"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="O24" s="228" t="str">
+        <f t="shared" si="1"/>
+        <v>\textbf{Edge Betweenness} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="P24" s="224"/>
+    </row>
+    <row r="25" spans="1:16">
       <c r="B25" s="74"/>
       <c r="C25" s="77"/>
       <c r="D25" s="78"/>
@@ -3868,8 +4369,9 @@
       <c r="K25" s="77"/>
       <c r="L25" s="79"/>
       <c r="M25" s="31"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1">
+      <c r="P25" s="224"/>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" thickBot="1">
       <c r="A26" s="10"/>
       <c r="B26" s="80"/>
       <c r="C26" s="81"/>
@@ -3883,8 +4385,11 @@
       <c r="K26" s="81"/>
       <c r="L26" s="83"/>
       <c r="M26" s="32"/>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="227"/>
+      <c r="O26" s="223"/>
+      <c r="P26" s="225"/>
+    </row>
+    <row r="27" spans="1:16">
       <c r="B27" s="74"/>
       <c r="C27" s="77"/>
       <c r="D27" s="78"/>
@@ -3897,37 +4402,43 @@
       <c r="K27" s="77"/>
       <c r="L27" s="79"/>
       <c r="M27" s="70"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1">
+      <c r="P27" s="226"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" thickBot="1">
       <c r="M28" s="31"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1">
+      <c r="P28" s="224"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" thickBot="1">
       <c r="B29" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="221" t="s">
+      <c r="C29" s="259" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="222"/>
-      <c r="E29" s="222" t="s">
+      <c r="D29" s="260"/>
+      <c r="E29" s="260" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="222"/>
-      <c r="G29" s="222" t="s">
+      <c r="F29" s="260"/>
+      <c r="G29" s="260" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="222"/>
-      <c r="I29" s="222" t="s">
+      <c r="H29" s="260"/>
+      <c r="I29" s="260" t="s">
         <v>26</v>
       </c>
-      <c r="J29" s="222"/>
-      <c r="K29" s="222" t="s">
+      <c r="J29" s="260"/>
+      <c r="K29" s="260" t="s">
         <v>27</v>
       </c>
-      <c r="L29" s="222"/>
+      <c r="L29" s="260"/>
       <c r="M29" s="31"/>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="O29" s="293" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" s="224"/>
+    </row>
+    <row r="30" spans="1:16">
       <c r="B30" s="17" t="s">
         <v>28</v>
       </c>
@@ -3962,8 +4473,13 @@
         <v>0.95299999999999996</v>
       </c>
       <c r="M30" s="31"/>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="O30" s="292" t="str">
+        <f>"\textbf"&amp;"{"&amp;B30&amp;"}"&amp;" &amp; "&amp;"{"&amp;C30&amp;"}"&amp;" &amp; "&amp;"{"&amp;D30&amp;"}"&amp;" &amp; "&amp;"{"&amp;I30&amp;"}"&amp;" &amp; "&amp;"{"&amp;J30&amp;"}"&amp;" &amp; "&amp;"{"&amp;K30&amp;"}"&amp;" &amp; "&amp;"{"&amp;L30&amp;"}"&amp;"\\"</f>
+        <v>\textbf{Infomap} &amp; {582} &amp; {0.969} &amp; {586} &amp; {0.969} &amp; {587} &amp; {0.953}\\</v>
+      </c>
+      <c r="P30" s="224"/>
+    </row>
+    <row r="31" spans="1:16">
       <c r="B31" s="114" t="s">
         <v>29</v>
       </c>
@@ -3998,8 +4514,13 @@
         <v>22</v>
       </c>
       <c r="M31" s="31"/>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="O31" s="228" t="str">
+        <f t="shared" ref="O31:O37" si="2">"\textbf"&amp;"{"&amp;B31&amp;"}"&amp;" &amp; "&amp;"{"&amp;C31&amp;"}"&amp;" &amp; "&amp;"{"&amp;D31&amp;"}"&amp;" &amp; "&amp;"{"&amp;I31&amp;"}"&amp;" &amp; "&amp;"{"&amp;J31&amp;"}"&amp;" &amp; "&amp;"{"&amp;K31&amp;"}"&amp;" &amp; "&amp;"{"&amp;L31&amp;"}"&amp;"\\"</f>
+        <v>\textbf{Spinglass} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="P31" s="224"/>
+    </row>
+    <row r="32" spans="1:16">
       <c r="B32" s="114" t="s">
         <v>30</v>
       </c>
@@ -4034,8 +4555,13 @@
         <v>0.96199999999999997</v>
       </c>
       <c r="M32" s="31"/>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="O32" s="228" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Louvain} &amp; {563} &amp; {0.979} &amp; {563} &amp; {0.978} &amp; {564} &amp; {0.962}\\</v>
+      </c>
+      <c r="P32" s="224"/>
+    </row>
+    <row r="33" spans="1:16">
       <c r="B33" s="114" t="s">
         <v>31</v>
       </c>
@@ -4070,8 +4596,13 @@
         <v>0.93100000000000005</v>
       </c>
       <c r="M33" s="31"/>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="O33" s="228" t="str">
+        <f>"\textbf"&amp;"{"&amp;B33&amp;"}"&amp;" &amp; "&amp;"{"&amp;C33&amp;"}"&amp;" &amp; "&amp;"{"&amp;D33&amp;"}"&amp;" &amp; "&amp;"{"&amp;I33&amp;"}"&amp;" &amp; "&amp;"{"&amp;J33&amp;"}"&amp;" &amp; "&amp;"{"&amp;K33&amp;"}"&amp;" &amp; "&amp;"{"&amp;L33&amp;"}"&amp;"\\"</f>
+        <v>\textbf{Label Propagation} &amp; {588} &amp; {0.955} &amp; {605} &amp; {0.946} &amp; {599} &amp; {0.931}\\</v>
+      </c>
+      <c r="P33" s="224"/>
+    </row>
+    <row r="34" spans="1:16">
       <c r="B34" s="114" t="s">
         <v>32</v>
       </c>
@@ -4106,8 +4637,13 @@
         <v>0.96</v>
       </c>
       <c r="M34" s="31"/>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="O34" s="228" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Leading Eigenvector} &amp; {563} &amp; {0.978} &amp; {564} &amp; {0.978} &amp; {563} &amp; {0.96}\\</v>
+      </c>
+      <c r="P34" s="224"/>
+    </row>
+    <row r="35" spans="1:16">
       <c r="B35" s="114" t="s">
         <v>33</v>
       </c>
@@ -4142,8 +4678,13 @@
         <v>0.95199999999999996</v>
       </c>
       <c r="M35" s="31"/>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="O35" s="228" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Walktrap} &amp; {563} &amp; {0.977} &amp; {564} &amp; {0.974} &amp; {564} &amp; {0.952}\\</v>
+      </c>
+      <c r="P35" s="224"/>
+    </row>
+    <row r="36" spans="1:16">
       <c r="B36" s="114" t="s">
         <v>34</v>
       </c>
@@ -4178,8 +4719,13 @@
         <v>0.96199999999999997</v>
       </c>
       <c r="M36" s="31"/>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="O36" s="228" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Fast Greedy} &amp; {562} &amp; {0.978} &amp; {563} &amp; {0.978} &amp; {564} &amp; {0.962}\\</v>
+      </c>
+      <c r="P36" s="224"/>
+    </row>
+    <row r="37" spans="1:16">
       <c r="B37" s="114" t="s">
         <v>15</v>
       </c>
@@ -4214,11 +4760,17 @@
         <v>22</v>
       </c>
       <c r="M37" s="31"/>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="O37" s="228" t="str">
+        <f t="shared" si="2"/>
+        <v>\textbf{Edge Betweenness} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="P37" s="224"/>
+    </row>
+    <row r="38" spans="1:16">
       <c r="M38" s="31"/>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" thickBot="1">
+      <c r="P38" s="224"/>
+    </row>
+    <row r="39" spans="1:16" ht="15.75" thickBot="1">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -4232,6 +4784,9 @@
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
       <c r="M39" s="32"/>
+      <c r="N39" s="227"/>
+      <c r="O39" s="223"/>
+      <c r="P39" s="225"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4257,54 +4812,58 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="L59" sqref="L59"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="57.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="2:17">
       <c r="M1" s="71"/>
       <c r="N1" s="31"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.75" thickBot="1">
+      <c r="Q1" s="232"/>
+    </row>
+    <row r="2" spans="2:17" ht="15.75" thickBot="1">
       <c r="M2" s="71"/>
       <c r="N2" s="31"/>
-    </row>
-    <row r="3" spans="2:14" ht="15.75" thickBot="1">
+      <c r="Q2" s="232"/>
+    </row>
+    <row r="3" spans="2:17" ht="15.75" thickBot="1">
       <c r="B3" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="233" t="s">
+      <c r="C3" s="271" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="221"/>
-      <c r="E3" s="234" t="s">
+      <c r="D3" s="259"/>
+      <c r="E3" s="272" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="221"/>
-      <c r="G3" s="234" t="s">
+      <c r="F3" s="259"/>
+      <c r="G3" s="272" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="221"/>
-      <c r="I3" s="234" t="s">
+      <c r="H3" s="259"/>
+      <c r="I3" s="272" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="221"/>
-      <c r="K3" s="222" t="s">
+      <c r="J3" s="259"/>
+      <c r="K3" s="260" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="222"/>
+      <c r="L3" s="260"/>
       <c r="M3" s="71"/>
       <c r="N3" s="31"/>
-    </row>
-    <row r="4" spans="2:14">
+      <c r="Q3" s="232"/>
+    </row>
+    <row r="4" spans="2:17">
       <c r="B4" s="106" t="s">
         <v>29</v>
       </c>
@@ -4340,8 +4899,9 @@
       </c>
       <c r="M4" s="71"/>
       <c r="N4" s="31"/>
-    </row>
-    <row r="5" spans="2:14">
+      <c r="Q4" s="232"/>
+    </row>
+    <row r="5" spans="2:17">
       <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
@@ -4377,8 +4937,9 @@
       </c>
       <c r="M5" s="71"/>
       <c r="N5" s="31"/>
-    </row>
-    <row r="6" spans="2:14">
+      <c r="Q5" s="232"/>
+    </row>
+    <row r="6" spans="2:17">
       <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
@@ -4414,16 +4975,18 @@
       </c>
       <c r="M6" s="71"/>
       <c r="N6" s="31"/>
-    </row>
-    <row r="7" spans="2:14" ht="15.75" thickBot="1">
+      <c r="Q6" s="232"/>
+    </row>
+    <row r="7" spans="2:17" ht="15.75" thickBot="1">
       <c r="M7" s="71"/>
       <c r="N7" s="31"/>
-    </row>
-    <row r="8" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B8" s="225" t="s">
+      <c r="Q7" s="232"/>
+    </row>
+    <row r="8" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B8" s="263" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="226"/>
+      <c r="C8" s="264"/>
       <c r="D8" s="181" t="s">
         <v>35</v>
       </c>
@@ -4436,9 +4999,13 @@
       <c r="H8" s="71"/>
       <c r="I8" s="71"/>
       <c r="N8" s="31"/>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="227" t="s">
+      <c r="P8" s="293" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" s="232"/>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="265" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="17" t="s">
@@ -4456,9 +5023,14 @@
       <c r="H9" s="71"/>
       <c r="I9" s="71"/>
       <c r="N9" s="31"/>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="227"/>
+      <c r="P9" s="292" t="str">
+        <f>"&amp; "&amp;"\textbf{"&amp;C9&amp;"}"&amp;" &amp; "&amp;"{"&amp;D9&amp;"}"&amp;" &amp; "&amp;"{"&amp;E9&amp;"}"&amp;" &amp; "&amp;"{"&amp;F9&amp;"}"&amp;"\\"</f>
+        <v>&amp; \textbf{Spinglass} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="Q9" s="232"/>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="265"/>
       <c r="C10" s="16" t="s">
         <v>30</v>
       </c>
@@ -4474,9 +5046,14 @@
       <c r="H10" s="71"/>
       <c r="I10" s="71"/>
       <c r="N10" s="31"/>
-    </row>
-    <row r="11" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B11" s="228"/>
+      <c r="P10" s="228" t="str">
+        <f t="shared" ref="P10:P23" si="0">"&amp; "&amp;"\textbf{"&amp;C10&amp;"}"&amp;" &amp; "&amp;"{"&amp;D10&amp;"}"&amp;" &amp; "&amp;"{"&amp;E10&amp;"}"&amp;" &amp; "&amp;"{"&amp;F10&amp;"}"&amp;"\\"</f>
+        <v>&amp; \textbf{Louvain} &amp; {16} &amp; {10} &amp; {11}\\</v>
+      </c>
+      <c r="Q10" s="232"/>
+    </row>
+    <row r="11" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B11" s="266"/>
       <c r="C11" s="18" t="s">
         <v>34</v>
       </c>
@@ -4492,9 +5069,14 @@
       <c r="H11" s="71"/>
       <c r="I11" s="71"/>
       <c r="N11" s="31"/>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="229" t="s">
+      <c r="P11" s="228" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; \textbf{Fast Greedy} &amp; {11} &amp; {10} &amp; {16}\\</v>
+      </c>
+      <c r="Q11" s="232"/>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" s="267" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="19" t="s">
@@ -4512,9 +5094,14 @@
       <c r="H12" s="71"/>
       <c r="I12" s="71"/>
       <c r="N12" s="31"/>
-    </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="227"/>
+      <c r="P12" s="228" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; \textbf{Spinglass} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="Q12" s="232"/>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="B13" s="265"/>
       <c r="C13" s="16" t="s">
         <v>30</v>
       </c>
@@ -4530,9 +5117,14 @@
       <c r="H13" s="71"/>
       <c r="I13" s="71"/>
       <c r="N13" s="31"/>
-    </row>
-    <row r="14" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B14" s="228"/>
+      <c r="P13" s="228" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; \textbf{Louvain} &amp; {10} &amp; {11} &amp; {16}\\</v>
+      </c>
+      <c r="Q13" s="232"/>
+    </row>
+    <row r="14" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B14" s="266"/>
       <c r="C14" s="18" t="s">
         <v>34</v>
       </c>
@@ -4548,9 +5140,14 @@
       <c r="H14" s="71"/>
       <c r="I14" s="71"/>
       <c r="N14" s="31"/>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="230" t="s">
+      <c r="P14" s="228" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; \textbf{Fast Greedy} &amp; {11} &amp; {10} &amp; {16}\\</v>
+      </c>
+      <c r="Q14" s="232"/>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="B15" s="268" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -4568,9 +5165,14 @@
       <c r="H15" s="71"/>
       <c r="I15" s="71"/>
       <c r="N15" s="31"/>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="224"/>
+      <c r="P15" s="228" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; \textbf{Spinglass} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="Q15" s="232"/>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16" s="262"/>
       <c r="C16" s="16" t="s">
         <v>30</v>
       </c>
@@ -4586,9 +5188,14 @@
       <c r="H16" s="71"/>
       <c r="I16" s="71"/>
       <c r="N16" s="31"/>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B17" s="231"/>
+      <c r="P16" s="228" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; \textbf{Louvain} &amp; {10} &amp; {11} &amp; {16}\\</v>
+      </c>
+      <c r="Q16" s="232"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" thickBot="1">
+      <c r="B17" s="269"/>
       <c r="C17" s="18" t="s">
         <v>34</v>
       </c>
@@ -4604,9 +5211,14 @@
       <c r="H17" s="71"/>
       <c r="I17" s="71"/>
       <c r="N17" s="31"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="B18" s="230" t="s">
+      <c r="P17" s="228" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; \textbf{Fast Greedy} &amp; {11} &amp; {10} &amp; {12}\\</v>
+      </c>
+      <c r="Q17" s="232"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="B18" s="268" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="19" t="s">
@@ -4624,9 +5236,14 @@
       <c r="H18" s="71"/>
       <c r="I18" s="71"/>
       <c r="N18" s="31"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="B19" s="224"/>
+      <c r="P18" s="228" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; \textbf{Spinglass} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="Q18" s="232"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="B19" s="262"/>
       <c r="C19" s="16" t="s">
         <v>30</v>
       </c>
@@ -4636,13 +5253,20 @@
       <c r="E19" s="13">
         <v>12</v>
       </c>
-      <c r="F19" s="13"/>
+      <c r="F19" s="230" t="s">
+        <v>22</v>
+      </c>
       <c r="H19" s="71"/>
       <c r="I19" s="71"/>
       <c r="N19" s="31"/>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B20" s="231"/>
+      <c r="P19" s="228" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; \textbf{Louvain} &amp; {10} &amp; {12} &amp; {-}\\</v>
+      </c>
+      <c r="Q19" s="232"/>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" thickBot="1">
+      <c r="B20" s="269"/>
       <c r="C20" s="18" t="s">
         <v>34</v>
       </c>
@@ -4652,13 +5276,20 @@
       <c r="E20" s="20">
         <v>12</v>
       </c>
-      <c r="F20" s="20"/>
+      <c r="F20" s="231" t="s">
+        <v>22</v>
+      </c>
       <c r="H20" s="71"/>
       <c r="I20" s="71"/>
       <c r="N20" s="31"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="B21" s="223" t="s">
+      <c r="P20" s="228" t="str">
+        <f>"&amp; "&amp;"\textbf{"&amp;C20&amp;"}"&amp;" &amp; "&amp;"{"&amp;D20&amp;"}"&amp;" &amp; "&amp;"{"&amp;E20&amp;"}"&amp;" &amp; "&amp;"{"&amp;F20&amp;"}"&amp;"\\"</f>
+        <v>&amp; \textbf{Fast Greedy} &amp; {10} &amp; {12} &amp; {-}\\</v>
+      </c>
+      <c r="Q20" s="232"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="B21" s="261" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="17" t="s">
@@ -4676,9 +5307,14 @@
       <c r="H21" s="71"/>
       <c r="I21" s="71"/>
       <c r="N21" s="31"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="B22" s="224"/>
+      <c r="P21" s="228" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; \textbf{Spinglass} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="Q21" s="232"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="B22" s="262"/>
       <c r="C22" s="16" t="s">
         <v>30</v>
       </c>
@@ -4694,9 +5330,14 @@
       <c r="H22" s="71"/>
       <c r="I22" s="71"/>
       <c r="N22" s="31"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="B23" s="224"/>
+      <c r="P22" s="228" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; \textbf{Louvain} &amp; {10} &amp; {12} &amp; {11}\\</v>
+      </c>
+      <c r="Q22" s="232"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="B23" s="262"/>
       <c r="C23" s="16" t="s">
         <v>34</v>
       </c>
@@ -4712,8 +5353,13 @@
       <c r="H23" s="71"/>
       <c r="I23" s="71"/>
       <c r="N23" s="31"/>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="P23" s="228" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; \textbf{Fast Greedy} &amp; {11} &amp; {10} &amp; {12}\\</v>
+      </c>
+      <c r="Q23" s="232"/>
+    </row>
+    <row r="24" spans="1:17">
       <c r="B24" s="73"/>
       <c r="C24" s="74"/>
       <c r="D24" s="75"/>
@@ -4726,8 +5372,9 @@
       <c r="K24" s="76"/>
       <c r="M24" s="71"/>
       <c r="N24" s="31"/>
-    </row>
-    <row r="25" spans="1:14" s="71" customFormat="1" ht="15.75" thickBot="1">
+      <c r="Q24" s="232"/>
+    </row>
+    <row r="25" spans="1:17" s="71" customFormat="1" ht="15.75" thickBot="1">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -4742,43 +5389,49 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
       <c r="N25" s="32"/>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25" s="235"/>
+      <c r="P25" s="229"/>
+      <c r="Q25" s="233"/>
+    </row>
+    <row r="26" spans="1:17">
       <c r="M26" s="71"/>
       <c r="N26" s="31"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" thickBot="1">
+      <c r="Q26" s="232"/>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" thickBot="1">
       <c r="M27" s="71"/>
       <c r="N27" s="31"/>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" thickBot="1">
+      <c r="Q27" s="232"/>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" thickBot="1">
       <c r="B28" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="232" t="s">
+      <c r="C28" s="270" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="221"/>
-      <c r="E28" s="234" t="s">
+      <c r="D28" s="259"/>
+      <c r="E28" s="272" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="221"/>
-      <c r="G28" s="234" t="s">
+      <c r="F28" s="259"/>
+      <c r="G28" s="272" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="221"/>
-      <c r="I28" s="234" t="s">
+      <c r="H28" s="259"/>
+      <c r="I28" s="272" t="s">
         <v>26</v>
       </c>
-      <c r="J28" s="221"/>
-      <c r="K28" s="222" t="s">
+      <c r="J28" s="259"/>
+      <c r="K28" s="260" t="s">
         <v>27</v>
       </c>
-      <c r="L28" s="222"/>
+      <c r="L28" s="260"/>
       <c r="M28" s="71"/>
       <c r="N28" s="31"/>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="Q28" s="232"/>
+    </row>
+    <row r="29" spans="1:17">
       <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
@@ -4814,8 +5467,9 @@
       </c>
       <c r="M29" s="71"/>
       <c r="N29" s="31"/>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="Q29" s="232"/>
+    </row>
+    <row r="30" spans="1:17">
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
@@ -4851,8 +5505,9 @@
       </c>
       <c r="M30" s="71"/>
       <c r="N30" s="31"/>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="Q30" s="232"/>
+    </row>
+    <row r="31" spans="1:17">
       <c r="B31" s="1" t="s">
         <v>34</v>
       </c>
@@ -4888,16 +5543,18 @@
       </c>
       <c r="M31" s="71"/>
       <c r="N31" s="31"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" thickBot="1">
+      <c r="Q31" s="232"/>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" thickBot="1">
       <c r="M32" s="71"/>
       <c r="N32" s="31"/>
-    </row>
-    <row r="33" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B33" s="225" t="s">
+      <c r="Q32" s="232"/>
+    </row>
+    <row r="33" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B33" s="263" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="226"/>
+      <c r="C33" s="264"/>
       <c r="D33" s="179" t="s">
         <v>35</v>
       </c>
@@ -4919,9 +5576,13 @@
       <c r="K33" s="71"/>
       <c r="L33" s="71"/>
       <c r="N33" s="31"/>
-    </row>
-    <row r="34" spans="2:14">
-      <c r="B34" s="227" t="s">
+      <c r="P33" s="293" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="232"/>
+    </row>
+    <row r="34" spans="2:17">
+      <c r="B34" s="265" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="17" t="s">
@@ -4948,9 +5609,14 @@
       <c r="K34" s="71"/>
       <c r="L34" s="71"/>
       <c r="N34" s="31"/>
-    </row>
-    <row r="35" spans="2:14">
-      <c r="B35" s="227"/>
+      <c r="P34" s="292" t="str">
+        <f>"&amp; "&amp;"\textbf{"&amp;C34&amp;"}"&amp;" &amp; "&amp;"{"&amp;D34&amp;"}"&amp;" &amp; "&amp;"{"&amp;E34&amp;"}"&amp;" &amp; "&amp;"{"&amp;F34&amp;"}"&amp;" &amp; "&amp;"{"&amp;G34&amp;"}"&amp;" &amp; "&amp;"{"&amp;H34&amp;"}"&amp;" &amp; "&amp;"{"&amp;I34&amp;"}"&amp;"\\"</f>
+        <v>&amp; \textbf{Spinglass} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="Q34" s="232"/>
+    </row>
+    <row r="35" spans="2:17">
+      <c r="B35" s="265"/>
       <c r="C35" s="16" t="s">
         <v>30</v>
       </c>
@@ -4975,9 +5641,14 @@
       <c r="K35" s="71"/>
       <c r="L35" s="71"/>
       <c r="N35" s="31"/>
-    </row>
-    <row r="36" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B36" s="228"/>
+      <c r="P35" s="236" t="str">
+        <f t="shared" ref="P35:P48" si="1">"&amp; "&amp;"\textbf{"&amp;C35&amp;"}"&amp;" &amp; "&amp;"{"&amp;D35&amp;"}"&amp;" &amp; "&amp;"{"&amp;E35&amp;"}"&amp;" &amp; "&amp;"{"&amp;F35&amp;"}"&amp;" &amp; "&amp;"{"&amp;G35&amp;"}"&amp;" &amp; "&amp;"{"&amp;H35&amp;"}"&amp;" &amp; "&amp;"{"&amp;I35&amp;"}"&amp;"\\"</f>
+        <v>&amp; \textbf{Louvain} &amp; {43} &amp; {41} &amp; {72} &amp; {46} &amp; {53} &amp; {66}\\</v>
+      </c>
+      <c r="Q35" s="232"/>
+    </row>
+    <row r="36" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B36" s="266"/>
       <c r="C36" s="18" t="s">
         <v>34</v>
       </c>
@@ -5002,9 +5673,14 @@
       <c r="K36" s="71"/>
       <c r="L36" s="71"/>
       <c r="N36" s="31"/>
-    </row>
-    <row r="37" spans="2:14">
-      <c r="B37" s="229" t="s">
+      <c r="P36" s="236" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; \textbf{Fast Greedy} &amp; {74} &amp; {50} &amp; {41} &amp; {53} &amp; {45} &amp; {-}\\</v>
+      </c>
+      <c r="Q36" s="232"/>
+    </row>
+    <row r="37" spans="2:17">
+      <c r="B37" s="267" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="19" t="s">
@@ -5031,9 +5707,14 @@
       <c r="K37" s="71"/>
       <c r="L37" s="71"/>
       <c r="N37" s="31"/>
-    </row>
-    <row r="38" spans="2:14">
-      <c r="B38" s="227"/>
+      <c r="P37" s="236" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; \textbf{Spinglass} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="Q37" s="232"/>
+    </row>
+    <row r="38" spans="2:17">
+      <c r="B38" s="265"/>
       <c r="C38" s="16" t="s">
         <v>30</v>
       </c>
@@ -5058,9 +5739,14 @@
       <c r="K38" s="71"/>
       <c r="L38" s="71"/>
       <c r="N38" s="31"/>
-    </row>
-    <row r="39" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B39" s="228"/>
+      <c r="P38" s="236" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; \textbf{Louvain} &amp; {41} &amp; {46} &amp; {49} &amp; {42} &amp; {72} &amp; {-}\\</v>
+      </c>
+      <c r="Q38" s="232"/>
+    </row>
+    <row r="39" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B39" s="266"/>
       <c r="C39" s="18" t="s">
         <v>34</v>
       </c>
@@ -5085,9 +5771,14 @@
       <c r="K39" s="71"/>
       <c r="L39" s="71"/>
       <c r="N39" s="31"/>
-    </row>
-    <row r="40" spans="2:14">
-      <c r="B40" s="230" t="s">
+      <c r="P39" s="236" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; \textbf{Fast Greedy} &amp; {67} &amp; {49} &amp; {41} &amp; {46} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="Q39" s="232"/>
+    </row>
+    <row r="40" spans="2:17">
+      <c r="B40" s="268" t="s">
         <v>25</v>
       </c>
       <c r="C40" s="19" t="s">
@@ -5114,9 +5805,14 @@
       <c r="K40" s="71"/>
       <c r="L40" s="71"/>
       <c r="N40" s="31"/>
-    </row>
-    <row r="41" spans="2:14">
-      <c r="B41" s="224"/>
+      <c r="P40" s="236" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; \textbf{Spinglass} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="Q40" s="232"/>
+    </row>
+    <row r="41" spans="2:17">
+      <c r="B41" s="262"/>
       <c r="C41" s="16" t="s">
         <v>30</v>
       </c>
@@ -5141,9 +5837,14 @@
       <c r="K41" s="71"/>
       <c r="L41" s="71"/>
       <c r="N41" s="31"/>
-    </row>
-    <row r="42" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B42" s="231"/>
+      <c r="P41" s="236" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; \textbf{Louvain} &amp; {47} &amp; {41} &amp; {41} &amp; {70} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="Q41" s="232"/>
+    </row>
+    <row r="42" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B42" s="269"/>
       <c r="C42" s="18" t="s">
         <v>34</v>
       </c>
@@ -5168,9 +5869,14 @@
       <c r="K42" s="71"/>
       <c r="L42" s="71"/>
       <c r="N42" s="31"/>
-    </row>
-    <row r="43" spans="2:14">
-      <c r="B43" s="230" t="s">
+      <c r="P42" s="236" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; \textbf{Fast Greedy} &amp; {67} &amp; {41} &amp; {47} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="Q42" s="232"/>
+    </row>
+    <row r="43" spans="2:17">
+      <c r="B43" s="268" t="s">
         <v>26</v>
       </c>
       <c r="C43" s="19" t="s">
@@ -5197,9 +5903,14 @@
       <c r="K43" s="71"/>
       <c r="L43" s="71"/>
       <c r="N43" s="31"/>
-    </row>
-    <row r="44" spans="2:14">
-      <c r="B44" s="224"/>
+      <c r="P43" s="236" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; \textbf{Spinglass} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="Q43" s="232"/>
+    </row>
+    <row r="44" spans="2:17">
+      <c r="B44" s="262"/>
       <c r="C44" s="16" t="s">
         <v>30</v>
       </c>
@@ -5224,9 +5935,14 @@
       <c r="K44" s="71"/>
       <c r="L44" s="71"/>
       <c r="N44" s="31"/>
-    </row>
-    <row r="45" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B45" s="231"/>
+      <c r="P44" s="236" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; \textbf{Louvain} &amp; {49} &amp; {46} &amp; {55} &amp; {65} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="Q44" s="232"/>
+    </row>
+    <row r="45" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B45" s="269"/>
       <c r="C45" s="18" t="s">
         <v>34</v>
       </c>
@@ -5251,9 +5967,14 @@
       <c r="K45" s="71"/>
       <c r="L45" s="71"/>
       <c r="N45" s="31"/>
-    </row>
-    <row r="46" spans="2:14">
-      <c r="B46" s="223" t="s">
+      <c r="P45" s="236" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; \textbf{Fast Greedy} &amp; {82} &amp; {49} &amp; {55} &amp; {46} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="Q45" s="232"/>
+    </row>
+    <row r="46" spans="2:17">
+      <c r="B46" s="261" t="s">
         <v>27</v>
       </c>
       <c r="C46" s="17" t="s">
@@ -5280,9 +6001,14 @@
       <c r="K46" s="71"/>
       <c r="L46" s="71"/>
       <c r="N46" s="31"/>
-    </row>
-    <row r="47" spans="2:14">
-      <c r="B47" s="224"/>
+      <c r="P46" s="236" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; \textbf{Spinglass} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="Q46" s="232"/>
+    </row>
+    <row r="47" spans="2:17">
+      <c r="B47" s="262"/>
       <c r="C47" s="16" t="s">
         <v>30</v>
       </c>
@@ -5307,9 +6033,14 @@
       <c r="K47" s="71"/>
       <c r="L47" s="71"/>
       <c r="N47" s="31"/>
-    </row>
-    <row r="48" spans="2:14">
-      <c r="B48" s="224"/>
+      <c r="P47" s="236" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; \textbf{Louvain} &amp; {46} &amp; {41} &amp; {41} &amp; {57} &amp; {41} &amp; {-}\\</v>
+      </c>
+      <c r="Q47" s="232"/>
+    </row>
+    <row r="48" spans="2:17">
+      <c r="B48" s="262"/>
       <c r="C48" s="16" t="s">
         <v>34</v>
       </c>
@@ -5334,12 +6065,18 @@
       <c r="K48" s="71"/>
       <c r="L48" s="71"/>
       <c r="N48" s="31"/>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="P48" s="236" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; \textbf{Fast Greedy} &amp; {67} &amp; {48} &amp; {41} &amp; {46} &amp; {47} &amp; {-}\\</v>
+      </c>
+      <c r="Q48" s="232"/>
+    </row>
+    <row r="49" spans="1:17">
       <c r="M49" s="71"/>
       <c r="N49" s="31"/>
-    </row>
-    <row r="50" spans="1:14" ht="15.75" thickBot="1">
+      <c r="Q49" s="232"/>
+    </row>
+    <row r="50" spans="1:17" ht="15.75" thickBot="1">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -5354,8 +6091,11 @@
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
       <c r="N50" s="32"/>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="O50" s="235"/>
+      <c r="P50" s="229"/>
+      <c r="Q50" s="233"/>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="71"/>
       <c r="B51" s="71"/>
       <c r="C51" s="71"/>
@@ -5370,39 +6110,42 @@
       <c r="L51" s="71"/>
       <c r="M51" s="71"/>
       <c r="N51" s="31"/>
-    </row>
-    <row r="52" spans="1:14" ht="15.75" thickBot="1">
+      <c r="Q51" s="234"/>
+    </row>
+    <row r="52" spans="1:17" ht="15.75" thickBot="1">
       <c r="M52" s="71"/>
       <c r="N52" s="31"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" thickBot="1">
+      <c r="Q52" s="232"/>
+    </row>
+    <row r="53" spans="1:17" ht="15.75" thickBot="1">
       <c r="B53" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="233" t="s">
+      <c r="C53" s="271" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="221"/>
-      <c r="E53" s="234" t="s">
+      <c r="D53" s="259"/>
+      <c r="E53" s="272" t="s">
         <v>24</v>
       </c>
-      <c r="F53" s="221"/>
-      <c r="G53" s="234" t="s">
+      <c r="F53" s="259"/>
+      <c r="G53" s="272" t="s">
         <v>25</v>
       </c>
-      <c r="H53" s="221"/>
-      <c r="I53" s="234" t="s">
+      <c r="H53" s="259"/>
+      <c r="I53" s="272" t="s">
         <v>26</v>
       </c>
-      <c r="J53" s="221"/>
-      <c r="K53" s="222" t="s">
+      <c r="J53" s="259"/>
+      <c r="K53" s="260" t="s">
         <v>27</v>
       </c>
-      <c r="L53" s="222"/>
+      <c r="L53" s="260"/>
       <c r="M53" s="71"/>
       <c r="N53" s="31"/>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="Q53" s="232"/>
+    </row>
+    <row r="54" spans="1:17">
       <c r="B54" s="106" t="s">
         <v>29</v>
       </c>
@@ -5438,8 +6181,9 @@
       </c>
       <c r="M54" s="71"/>
       <c r="N54" s="31"/>
-    </row>
-    <row r="55" spans="1:14">
+      <c r="Q54" s="232"/>
+    </row>
+    <row r="55" spans="1:17">
       <c r="B55" s="1" t="s">
         <v>30</v>
       </c>
@@ -5475,8 +6219,9 @@
       </c>
       <c r="M55" s="71"/>
       <c r="N55" s="31"/>
-    </row>
-    <row r="56" spans="1:14">
+      <c r="Q55" s="232"/>
+    </row>
+    <row r="56" spans="1:17">
       <c r="B56" s="1" t="s">
         <v>34</v>
       </c>
@@ -5512,16 +6257,18 @@
       </c>
       <c r="M56" s="71"/>
       <c r="N56" s="31"/>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" thickBot="1">
+      <c r="Q56" s="232"/>
+    </row>
+    <row r="57" spans="1:17" ht="15.75" thickBot="1">
       <c r="M57" s="71"/>
       <c r="N57" s="31"/>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B58" s="225" t="s">
+      <c r="Q57" s="232"/>
+    </row>
+    <row r="58" spans="1:17" ht="15.75" thickBot="1">
+      <c r="B58" s="263" t="s">
         <v>43</v>
       </c>
-      <c r="C58" s="226"/>
+      <c r="C58" s="264"/>
       <c r="D58" s="179" t="s">
         <v>35</v>
       </c>
@@ -5539,9 +6286,13 @@
       </c>
       <c r="I58" s="220"/>
       <c r="N58" s="31"/>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="B59" s="227" t="s">
+      <c r="P58" s="293" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q58" s="232"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="B59" s="265" t="s">
         <v>23</v>
       </c>
       <c r="C59" s="17" t="s">
@@ -5564,9 +6315,14 @@
       </c>
       <c r="I59" s="220"/>
       <c r="N59" s="31"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="227"/>
+      <c r="P59" s="292" t="str">
+        <f>"&amp; "&amp;"\textbf{"&amp;C59&amp;"}"&amp;" &amp; "&amp;"{"&amp;D59&amp;"}"&amp;" &amp; "&amp;"{"&amp;E59&amp;"}"&amp;" &amp; "&amp;"{"&amp;F59&amp;"}"&amp;" &amp; "&amp;"{"&amp;G59&amp;"}"&amp;" &amp; "&amp;"{"&amp;H59&amp;"}"&amp;"\\"</f>
+        <v>&amp; \textbf{Spinglass} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="Q59" s="232"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="B60" s="265"/>
       <c r="C60" s="16" t="s">
         <v>30</v>
       </c>
@@ -5587,9 +6343,14 @@
       </c>
       <c r="I60" s="220"/>
       <c r="N60" s="31"/>
-    </row>
-    <row r="61" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B61" s="228"/>
+      <c r="P60" s="236" t="str">
+        <f t="shared" ref="P60:P73" si="2">"&amp; "&amp;"\textbf{"&amp;C60&amp;"}"&amp;" &amp; "&amp;"{"&amp;D60&amp;"}"&amp;" &amp; "&amp;"{"&amp;E60&amp;"}"&amp;" &amp; "&amp;"{"&amp;F60&amp;"}"&amp;" &amp; "&amp;"{"&amp;G60&amp;"}"&amp;" &amp; "&amp;"{"&amp;H60&amp;"}"&amp;"\\"</f>
+        <v>&amp; \textbf{Louvain} &amp; {31} &amp; {21} &amp; {30} &amp; {35} &amp; {46}\\</v>
+      </c>
+      <c r="Q60" s="232"/>
+    </row>
+    <row r="61" spans="1:17" ht="15.75" thickBot="1">
+      <c r="B61" s="266"/>
       <c r="C61" s="18" t="s">
         <v>34</v>
       </c>
@@ -5610,9 +6371,14 @@
       </c>
       <c r="I61" s="220"/>
       <c r="N61" s="31"/>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="B62" s="229" t="s">
+      <c r="P61" s="236" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; \textbf{Fast Greedy} &amp; {45} &amp; {30} &amp; {21} &amp; {46} &amp; {35}\\</v>
+      </c>
+      <c r="Q61" s="232"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="B62" s="267" t="s">
         <v>24</v>
       </c>
       <c r="C62" s="19" t="s">
@@ -5635,9 +6401,14 @@
       </c>
       <c r="I62" s="220"/>
       <c r="N62" s="31"/>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="B63" s="227"/>
+      <c r="P62" s="236" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; \textbf{Spinglass} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="Q62" s="232"/>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="B63" s="265"/>
       <c r="C63" s="16" t="s">
         <v>30</v>
       </c>
@@ -5653,12 +6424,19 @@
       <c r="G63" s="13">
         <v>35</v>
       </c>
-      <c r="H63" s="13"/>
+      <c r="H63" s="230" t="s">
+        <v>22</v>
+      </c>
       <c r="I63" s="220"/>
       <c r="N63" s="31"/>
-    </row>
-    <row r="64" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B64" s="228"/>
+      <c r="P63" s="236" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; \textbf{Louvain} &amp; {46} &amp; {31} &amp; {21} &amp; {35} &amp; {-}\\</v>
+      </c>
+      <c r="Q63" s="232"/>
+    </row>
+    <row r="64" spans="1:17" ht="15.75" thickBot="1">
+      <c r="B64" s="266"/>
       <c r="C64" s="18" t="s">
         <v>34</v>
       </c>
@@ -5674,12 +6452,19 @@
       <c r="G64" s="20">
         <v>35</v>
       </c>
-      <c r="H64" s="20"/>
+      <c r="H64" s="231" t="s">
+        <v>22</v>
+      </c>
       <c r="I64" s="220"/>
       <c r="N64" s="31"/>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="B65" s="230" t="s">
+      <c r="P64" s="236" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; \textbf{Fast Greedy} &amp; {21} &amp; {31} &amp; {46} &amp; {35} &amp; {-}\\</v>
+      </c>
+      <c r="Q64" s="232"/>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="B65" s="268" t="s">
         <v>25</v>
       </c>
       <c r="C65" s="19" t="s">
@@ -5702,9 +6487,14 @@
       </c>
       <c r="I65" s="220"/>
       <c r="N65" s="31"/>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="B66" s="224"/>
+      <c r="P65" s="236" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; \textbf{Spinglass} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="Q65" s="232"/>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="B66" s="262"/>
       <c r="C66" s="16" t="s">
         <v>30</v>
       </c>
@@ -5720,12 +6510,19 @@
       <c r="G66" s="13">
         <v>42</v>
       </c>
-      <c r="H66" s="13"/>
+      <c r="H66" s="230" t="s">
+        <v>22</v>
+      </c>
       <c r="I66" s="220"/>
       <c r="N66" s="31"/>
-    </row>
-    <row r="67" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B67" s="231"/>
+      <c r="P66" s="236" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; \textbf{Louvain} &amp; {21} &amp; {28} &amp; {31} &amp; {42} &amp; {-}\\</v>
+      </c>
+      <c r="Q66" s="232"/>
+    </row>
+    <row r="67" spans="1:17" ht="15.75" thickBot="1">
+      <c r="B67" s="269"/>
       <c r="C67" s="18" t="s">
         <v>34</v>
       </c>
@@ -5741,12 +6538,19 @@
       <c r="G67" s="20">
         <v>31</v>
       </c>
-      <c r="H67" s="20"/>
+      <c r="H67" s="231" t="s">
+        <v>22</v>
+      </c>
       <c r="I67" s="220"/>
       <c r="N67" s="31"/>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="B68" s="230" t="s">
+      <c r="P67" s="236" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; \textbf{Fast Greedy} &amp; {42} &amp; {21} &amp; {28} &amp; {31} &amp; {-}\\</v>
+      </c>
+      <c r="Q67" s="232"/>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="B68" s="268" t="s">
         <v>26</v>
       </c>
       <c r="C68" s="19" t="s">
@@ -5769,9 +6573,14 @@
       </c>
       <c r="I68" s="220"/>
       <c r="N68" s="31"/>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="B69" s="224"/>
+      <c r="P68" s="236" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; \textbf{Spinglass} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="Q68" s="232"/>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="B69" s="262"/>
       <c r="C69" s="16" t="s">
         <v>30</v>
       </c>
@@ -5792,9 +6601,14 @@
       </c>
       <c r="I69" s="220"/>
       <c r="N69" s="31"/>
-    </row>
-    <row r="70" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B70" s="231"/>
+      <c r="P69" s="236" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; \textbf{Louvain} &amp; {31} &amp; {21} &amp; {46} &amp; {35} &amp; {30}\\</v>
+      </c>
+      <c r="Q69" s="232"/>
+    </row>
+    <row r="70" spans="1:17" ht="15.75" thickBot="1">
+      <c r="B70" s="269"/>
       <c r="C70" s="18" t="s">
         <v>34</v>
       </c>
@@ -5815,9 +6629,14 @@
       </c>
       <c r="I70" s="220"/>
       <c r="N70" s="31"/>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="B71" s="223" t="s">
+      <c r="P70" s="236" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; \textbf{Fast Greedy} &amp; {30} &amp; {21} &amp; {31} &amp; {46} &amp; {35}\\</v>
+      </c>
+      <c r="Q70" s="232"/>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="B71" s="261" t="s">
         <v>27</v>
       </c>
       <c r="C71" s="17" t="s">
@@ -5840,9 +6659,14 @@
       </c>
       <c r="I71" s="220"/>
       <c r="N71" s="31"/>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="B72" s="224"/>
+      <c r="P71" s="236" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; \textbf{Spinglass} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="Q71" s="232"/>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="B72" s="262"/>
       <c r="C72" s="16" t="s">
         <v>30</v>
       </c>
@@ -5863,25 +6687,46 @@
       </c>
       <c r="I72" s="220"/>
       <c r="N72" s="31"/>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="B73" s="224"/>
+      <c r="P72" s="236" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; \textbf{Louvain} &amp; {28} &amp; {21} &amp; {46} &amp; {30} &amp; {35}\\</v>
+      </c>
+      <c r="Q72" s="232"/>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="B73" s="262"/>
       <c r="C73" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
+      <c r="D73" s="230" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" s="230" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" s="230" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" s="230" t="s">
+        <v>22</v>
+      </c>
+      <c r="H73" s="230" t="s">
+        <v>22</v>
+      </c>
       <c r="I73" s="220"/>
       <c r="N73" s="31"/>
-    </row>
-    <row r="74" spans="1:14">
+      <c r="P73" s="236" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp; \textbf{Fast Greedy} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="Q73" s="232"/>
+    </row>
+    <row r="74" spans="1:17">
       <c r="M74" s="71"/>
       <c r="N74" s="31"/>
-    </row>
-    <row r="75" spans="1:14" ht="15.75" thickBot="1">
+      <c r="Q74" s="232"/>
+    </row>
+    <row r="75" spans="1:17" ht="15.75" thickBot="1">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -5896,6 +6741,9 @@
       <c r="L75" s="10"/>
       <c r="M75" s="10"/>
       <c r="N75" s="32"/>
+      <c r="O75" s="235"/>
+      <c r="P75" s="229"/>
+      <c r="Q75" s="233"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -5940,10 +6788,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y111"/>
+  <dimension ref="A1:AA111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F114" sqref="F114"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5957,46 +6805,53 @@
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="68.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="122" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24">
+    <row r="1" spans="2:27">
       <c r="X1" s="31"/>
-    </row>
-    <row r="2" spans="2:24" ht="15.75" thickBot="1">
+      <c r="AA1" s="243"/>
+    </row>
+    <row r="2" spans="2:27" ht="15.75" thickBot="1">
       <c r="X2" s="31"/>
-    </row>
-    <row r="3" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B3" s="225" t="s">
+      <c r="AA2" s="243"/>
+    </row>
+    <row r="3" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B3" s="263" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="226"/>
-      <c r="D3" s="232" t="s">
+      <c r="C3" s="264"/>
+      <c r="D3" s="270" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="221"/>
-      <c r="F3" s="234" t="s">
+      <c r="E3" s="259"/>
+      <c r="F3" s="272" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="221"/>
-      <c r="H3" s="234" t="s">
+      <c r="G3" s="259"/>
+      <c r="H3" s="272" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="221"/>
+      <c r="I3" s="259"/>
       <c r="J3" s="100"/>
       <c r="K3" s="100"/>
       <c r="L3" s="100"/>
       <c r="M3" s="100"/>
       <c r="N3" s="71"/>
       <c r="X3" s="31"/>
-    </row>
-    <row r="4" spans="2:24">
-      <c r="B4" s="246" t="s">
+      <c r="Z3" s="293" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA3" s="243"/>
+    </row>
+    <row r="4" spans="2:27">
+      <c r="B4" s="284" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="58" t="s">
@@ -6026,9 +6881,14 @@
       <c r="M4" s="100"/>
       <c r="N4" s="71"/>
       <c r="X4" s="31"/>
-    </row>
-    <row r="5" spans="2:24">
-      <c r="B5" s="247"/>
+      <c r="Z4" s="292" t="str">
+        <f>"&amp; "&amp;"{"&amp;D4&amp;"}"&amp;" &amp; "&amp;"{"&amp;F4&amp;"}"&amp;" &amp; "&amp;"{"&amp;H4&amp;"}"&amp;"\\"&amp;"&amp; "&amp;"{"&amp;E4&amp;"}"&amp;" &amp; "&amp;"{"&amp;G4&amp;"}"&amp;" &amp; "&amp;"{"&amp;I4&amp;"}"&amp;"\\"</f>
+        <v>&amp; {-} &amp; {-} &amp; {-}\\&amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="AA4" s="243"/>
+    </row>
+    <row r="5" spans="2:27">
+      <c r="B5" s="285"/>
       <c r="C5" s="23" t="s">
         <v>30</v>
       </c>
@@ -6056,9 +6916,14 @@
       <c r="M5" s="100"/>
       <c r="N5" s="71"/>
       <c r="X5" s="31"/>
-    </row>
-    <row r="6" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B6" s="248"/>
+      <c r="Z5" s="236" t="str">
+        <f t="shared" ref="Z5:Z18" si="0">"&amp; "&amp;"{"&amp;D5&amp;"}"&amp;" &amp; "&amp;"{"&amp;F5&amp;"}"&amp;" &amp; "&amp;"{"&amp;H5&amp;"}"&amp;"\\"&amp;"&amp; "&amp;"{"&amp;E5&amp;"}"&amp;" &amp; "&amp;"{"&amp;G5&amp;"}"&amp;" &amp; "&amp;"{"&amp;I5&amp;"}"&amp;"\\"</f>
+        <v>&amp; {47} &amp; {33} &amp; {18}\\&amp; {105055256} &amp; {103554690} &amp; {44263720}\\</v>
+      </c>
+      <c r="AA5" s="243"/>
+    </row>
+    <row r="6" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B6" s="286"/>
       <c r="C6" s="26" t="s">
         <v>34</v>
       </c>
@@ -6086,9 +6951,14 @@
       <c r="M6" s="100"/>
       <c r="N6" s="71"/>
       <c r="X6" s="31"/>
-    </row>
-    <row r="7" spans="2:24">
-      <c r="B7" s="237" t="s">
+      <c r="Z6" s="236" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; {18} &amp; {33} &amp; {47}\\&amp; {44263720} &amp; {103554690} &amp; {105055256}\\</v>
+      </c>
+      <c r="AA6" s="243"/>
+    </row>
+    <row r="7" spans="2:27">
+      <c r="B7" s="275" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="33" t="s">
@@ -6118,9 +6988,14 @@
       <c r="M7" s="100"/>
       <c r="N7" s="71"/>
       <c r="X7" s="31"/>
-    </row>
-    <row r="8" spans="2:24">
-      <c r="B8" s="238"/>
+      <c r="Z7" s="236" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; {-} &amp; {-} &amp; {-}\\&amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="AA7" s="243"/>
+    </row>
+    <row r="8" spans="2:27">
+      <c r="B8" s="276"/>
       <c r="C8" s="36" t="s">
         <v>30</v>
       </c>
@@ -6148,9 +7023,14 @@
       <c r="M8" s="100"/>
       <c r="N8" s="71"/>
       <c r="X8" s="31"/>
-    </row>
-    <row r="9" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B9" s="239"/>
+      <c r="Z8" s="236" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; {33} &amp; {18} &amp; {47}\\&amp; {103554690} &amp; {44263720} &amp; {105055256}\\</v>
+      </c>
+      <c r="AA8" s="243"/>
+    </row>
+    <row r="9" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B9" s="277"/>
       <c r="C9" s="37" t="s">
         <v>34</v>
       </c>
@@ -6178,9 +7058,14 @@
       <c r="M9" s="100"/>
       <c r="N9" s="71"/>
       <c r="X9" s="31"/>
-    </row>
-    <row r="10" spans="2:24">
-      <c r="B10" s="240" t="s">
+      <c r="Z9" s="236" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; {18} &amp; {33} &amp; {47}\\&amp; {44263720} &amp; {103554690} &amp; {105055256}\\</v>
+      </c>
+      <c r="AA9" s="243"/>
+    </row>
+    <row r="10" spans="2:27">
+      <c r="B10" s="278" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="40" t="s">
@@ -6210,9 +7095,14 @@
       <c r="M10" s="100"/>
       <c r="N10" s="71"/>
       <c r="X10" s="31"/>
-    </row>
-    <row r="11" spans="2:24">
-      <c r="B11" s="241"/>
+      <c r="Z10" s="236" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; {-} &amp; {-} &amp; {-}\\&amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="AA10" s="243"/>
+    </row>
+    <row r="11" spans="2:27">
+      <c r="B11" s="279"/>
       <c r="C11" s="43" t="s">
         <v>30</v>
       </c>
@@ -6240,9 +7130,14 @@
       <c r="M11" s="100"/>
       <c r="N11" s="71"/>
       <c r="X11" s="31"/>
-    </row>
-    <row r="12" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B12" s="242"/>
+      <c r="Z11" s="236" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; {33} &amp; {18} &amp; {47}\\&amp; {103554690} &amp; {44263720} &amp; {105055256}\\</v>
+      </c>
+      <c r="AA11" s="243"/>
+    </row>
+    <row r="12" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B12" s="280"/>
       <c r="C12" s="44" t="s">
         <v>34</v>
       </c>
@@ -6270,9 +7165,14 @@
       <c r="M12" s="100"/>
       <c r="N12" s="71"/>
       <c r="X12" s="31"/>
-    </row>
-    <row r="13" spans="2:24">
-      <c r="B13" s="243" t="s">
+      <c r="Z12" s="236" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; {18} &amp; {33} &amp; {35}\\&amp; {44263720} &amp; {103554690} &amp; {87514853}\\</v>
+      </c>
+      <c r="AA12" s="243"/>
+    </row>
+    <row r="13" spans="2:27">
+      <c r="B13" s="281" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="47" t="s">
@@ -6302,9 +7202,14 @@
       <c r="M13" s="100"/>
       <c r="N13" s="71"/>
       <c r="X13" s="31"/>
-    </row>
-    <row r="14" spans="2:24">
-      <c r="B14" s="244"/>
+      <c r="Z13" s="236" t="str">
+        <f>"&amp; "&amp;"{"&amp;D13&amp;"}"&amp;" &amp; "&amp;"{"&amp;F13&amp;"}"&amp;" &amp; "&amp;"{"&amp;H13&amp;"}"&amp;"\\"&amp;"&amp; "&amp;"{"&amp;E13&amp;"}"&amp;" &amp; "&amp;"{"&amp;G13&amp;"}"&amp;" &amp; "&amp;"{"&amp;I13&amp;"}"&amp;"\\"</f>
+        <v>&amp; {-} &amp; {-} &amp; {-}\\&amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="AA13" s="243"/>
+    </row>
+    <row r="14" spans="2:27">
+      <c r="B14" s="282"/>
       <c r="C14" s="48" t="s">
         <v>30</v>
       </c>
@@ -6332,9 +7237,14 @@
       <c r="M14" s="100"/>
       <c r="N14" s="71"/>
       <c r="X14" s="31"/>
-    </row>
-    <row r="15" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B15" s="245"/>
+      <c r="Z14" s="236" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; {33} &amp; {35} &amp; {-}\\&amp; {103554690} &amp; {87514853} &amp; {-}\\</v>
+      </c>
+      <c r="AA14" s="243"/>
+    </row>
+    <row r="15" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B15" s="283"/>
       <c r="C15" s="49" t="s">
         <v>34</v>
       </c>
@@ -6362,9 +7272,14 @@
       <c r="M15" s="100"/>
       <c r="N15" s="71"/>
       <c r="X15" s="31"/>
-    </row>
-    <row r="16" spans="2:24">
-      <c r="B16" s="235" t="s">
+      <c r="Z15" s="236" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; {33} &amp; {35} &amp; {-}\\&amp; {103554690} &amp; {87514853} &amp; {-}\\</v>
+      </c>
+      <c r="AA15" s="243"/>
+    </row>
+    <row r="16" spans="2:27">
+      <c r="B16" s="273" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="56" t="s">
@@ -6394,9 +7309,14 @@
       <c r="M16" s="100"/>
       <c r="N16" s="71"/>
       <c r="X16" s="31"/>
-    </row>
-    <row r="17" spans="2:25">
-      <c r="B17" s="236"/>
+      <c r="Z16" s="236" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; {-} &amp; {-} &amp; {-}\\&amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="AA16" s="243"/>
+    </row>
+    <row r="17" spans="2:27">
+      <c r="B17" s="274"/>
       <c r="C17" s="54" t="s">
         <v>30</v>
       </c>
@@ -6424,9 +7344,14 @@
       <c r="M17" s="100"/>
       <c r="N17" s="71"/>
       <c r="X17" s="31"/>
-    </row>
-    <row r="18" spans="2:25">
-      <c r="B18" s="236"/>
+      <c r="Z17" s="236" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; {33} &amp; {35} &amp; {18}\\&amp; {103554690} &amp; {87514853} &amp; {44263720}\\</v>
+      </c>
+      <c r="AA17" s="243"/>
+    </row>
+    <row r="18" spans="2:27">
+      <c r="B18" s="274"/>
       <c r="C18" s="54" t="s">
         <v>34</v>
       </c>
@@ -6454,15 +7379,22 @@
       <c r="M18" s="100"/>
       <c r="N18" s="71"/>
       <c r="X18" s="31"/>
-    </row>
-    <row r="19" spans="2:25" ht="15.75" thickBot="1">
+      <c r="Z18" s="236" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; {18} &amp; {33} &amp; {35}\\&amp; {44263720} &amp; {103554690} &amp; {87514853}\\</v>
+      </c>
+      <c r="AA18" s="243"/>
+    </row>
+    <row r="19" spans="2:27" ht="15.75" thickBot="1">
       <c r="X19" s="31"/>
-    </row>
-    <row r="20" spans="2:25" ht="30.75" thickBot="1">
-      <c r="B20" s="249" t="s">
+      <c r="Z19" s="237"/>
+      <c r="AA19" s="243"/>
+    </row>
+    <row r="20" spans="2:27" ht="30.75" thickBot="1">
+      <c r="B20" s="287" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="253"/>
+      <c r="C20" s="291"/>
       <c r="D20" s="182" t="s">
         <v>50</v>
       </c>
@@ -6486,13 +7418,18 @@
       </c>
       <c r="K20" s="183" t="s">
         <v>57</v>
+      </c>
+      <c r="M20" s="238" t="s">
+        <v>59</v>
       </c>
       <c r="W20" s="71"/>
       <c r="X20" s="71"/>
       <c r="Y20" s="188"/>
-    </row>
-    <row r="21" spans="2:25">
-      <c r="B21" s="246" t="s">
+      <c r="Z20" s="237"/>
+      <c r="AA20" s="243"/>
+    </row>
+    <row r="21" spans="2:27">
+      <c r="B21" s="284" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="58" t="s">
@@ -6522,10 +7459,16 @@
       <c r="K21" s="95" t="s">
         <v>22</v>
       </c>
+      <c r="M21" s="239" t="str">
+        <f>"&amp; "&amp;"{"&amp;F21&amp;"}"&amp;" &amp; "&amp;"{"&amp;H21&amp;"}"&amp;" &amp; "&amp;"{"&amp;J21&amp;"}"&amp;"\\"&amp;"&amp; "&amp;"{"&amp;G21&amp;"}"&amp;" &amp; "&amp;"{"&amp;I21&amp;"}"&amp;" &amp; "&amp;"{"&amp;K21&amp;"}"&amp;"\\"</f>
+        <v>&amp; {-} &amp; {-} &amp; {-}\\&amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
       <c r="X21" s="31"/>
-    </row>
-    <row r="22" spans="2:25">
-      <c r="B22" s="247"/>
+      <c r="Z21" s="237"/>
+      <c r="AA21" s="243"/>
+    </row>
+    <row r="22" spans="2:27">
+      <c r="B22" s="285"/>
       <c r="C22" s="23" t="s">
         <v>30</v>
       </c>
@@ -6557,10 +7500,16 @@
         <f>I22-G22</f>
         <v>772210894</v>
       </c>
+      <c r="M22" s="239" t="str">
+        <f t="shared" ref="M22:M35" si="1">"&amp; "&amp;"{"&amp;F22&amp;"}"&amp;" &amp; "&amp;"{"&amp;H22&amp;"}"&amp;" &amp; "&amp;"{"&amp;J22&amp;"}"&amp;"\\"&amp;"&amp; "&amp;"{"&amp;G22&amp;"}"&amp;" &amp; "&amp;"{"&amp;I22&amp;"}"&amp;" &amp; "&amp;"{"&amp;K22&amp;"}"&amp;"\\"</f>
+        <v>&amp; {95} &amp; {477} &amp; {382}\\&amp; {239332699} &amp; {1011543593} &amp; {772210894}\\</v>
+      </c>
       <c r="X22" s="31"/>
-    </row>
-    <row r="23" spans="2:25" ht="15.75" thickBot="1">
-      <c r="B23" s="248"/>
+      <c r="Z22" s="237"/>
+      <c r="AA22" s="243"/>
+    </row>
+    <row r="23" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B23" s="286"/>
       <c r="C23" s="26" t="s">
         <v>34</v>
       </c>
@@ -6592,10 +7541,16 @@
         <f>I23-G23</f>
         <v>772210894</v>
       </c>
+      <c r="M23" s="239" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; {95} &amp; {477} &amp; {382}\\&amp; {239332699} &amp; {1011543593} &amp; {772210894}\\</v>
+      </c>
       <c r="X23" s="31"/>
-    </row>
-    <row r="24" spans="2:25">
-      <c r="B24" s="237" t="s">
+      <c r="Z23" s="237"/>
+      <c r="AA23" s="243"/>
+    </row>
+    <row r="24" spans="2:27">
+      <c r="B24" s="275" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="33" t="s">
@@ -6625,10 +7580,16 @@
       <c r="K24" s="86" t="s">
         <v>22</v>
       </c>
+      <c r="M24" s="239" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; {-} &amp; {-} &amp; {-}\\&amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
       <c r="X24" s="31"/>
-    </row>
-    <row r="25" spans="2:25">
-      <c r="B25" s="238"/>
+      <c r="Z24" s="237"/>
+      <c r="AA24" s="243"/>
+    </row>
+    <row r="25" spans="2:27">
+      <c r="B25" s="276"/>
       <c r="C25" s="36" t="s">
         <v>30</v>
       </c>
@@ -6657,13 +7618,19 @@
         <v>382</v>
       </c>
       <c r="K25" s="128">
-        <f t="shared" ref="K25:K28" si="0">I25-G25</f>
+        <f t="shared" ref="K25:K28" si="2">I25-G25</f>
         <v>772210894</v>
       </c>
+      <c r="M25" s="239" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; {95} &amp; {477} &amp; {382}\\&amp; {239332699} &amp; {1011543593} &amp; {772210894}\\</v>
+      </c>
       <c r="X25" s="31"/>
-    </row>
-    <row r="26" spans="2:25" ht="15.75" thickBot="1">
-      <c r="B26" s="239"/>
+      <c r="Z25" s="237"/>
+      <c r="AA25" s="243"/>
+    </row>
+    <row r="26" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B26" s="277"/>
       <c r="C26" s="37" t="s">
         <v>34</v>
       </c>
@@ -6695,10 +7662,16 @@
         <f>I26-G26</f>
         <v>772210894</v>
       </c>
+      <c r="M26" s="239" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; {95} &amp; {477} &amp; {382}\\&amp; {239332699} &amp; {1011543593} &amp; {772210894}\\</v>
+      </c>
       <c r="X26" s="31"/>
-    </row>
-    <row r="27" spans="2:25">
-      <c r="B27" s="240" t="s">
+      <c r="Z26" s="237"/>
+      <c r="AA26" s="243"/>
+    </row>
+    <row r="27" spans="2:27">
+      <c r="B27" s="278" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="40" t="s">
@@ -6728,10 +7701,16 @@
       <c r="K27" s="85" t="s">
         <v>22</v>
       </c>
+      <c r="M27" s="239" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; {-} &amp; {-} &amp; {-}\\&amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
       <c r="X27" s="31"/>
-    </row>
-    <row r="28" spans="2:25">
-      <c r="B28" s="241"/>
+      <c r="Z27" s="237"/>
+      <c r="AA27" s="243"/>
+    </row>
+    <row r="28" spans="2:27">
+      <c r="B28" s="279"/>
       <c r="C28" s="43" t="s">
         <v>30</v>
       </c>
@@ -6760,13 +7739,19 @@
         <v>382</v>
       </c>
       <c r="K28" s="129">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>772210894</v>
       </c>
+      <c r="M28" s="239" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; {95} &amp; {477} &amp; {382}\\&amp; {239332699} &amp; {1011543593} &amp; {772210894}\\</v>
+      </c>
       <c r="X28" s="31"/>
-    </row>
-    <row r="29" spans="2:25" ht="15.75" thickBot="1">
-      <c r="B29" s="242"/>
+      <c r="Z28" s="237"/>
+      <c r="AA28" s="243"/>
+    </row>
+    <row r="29" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B29" s="280"/>
       <c r="C29" s="44" t="s">
         <v>34</v>
       </c>
@@ -6798,10 +7783,16 @@
         <f>I29-G29</f>
         <v>789751297</v>
       </c>
+      <c r="M29" s="239" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; {83} &amp; {477} &amp; {394}\\&amp; {221792296} &amp; {1011543593} &amp; {789751297}\\</v>
+      </c>
       <c r="X29" s="31"/>
-    </row>
-    <row r="30" spans="2:25">
-      <c r="B30" s="243" t="s">
+      <c r="Z29" s="237"/>
+      <c r="AA29" s="243"/>
+    </row>
+    <row r="30" spans="2:27">
+      <c r="B30" s="281" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="47" t="s">
@@ -6831,10 +7822,16 @@
       <c r="K30" s="67" t="s">
         <v>22</v>
       </c>
+      <c r="M30" s="239" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; {-} &amp; {-} &amp; {-}\\&amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
       <c r="X30" s="31"/>
-    </row>
-    <row r="31" spans="2:25">
-      <c r="B31" s="244"/>
+      <c r="Z30" s="237"/>
+      <c r="AA30" s="243"/>
+    </row>
+    <row r="31" spans="2:27">
+      <c r="B31" s="282"/>
       <c r="C31" s="48" t="s">
         <v>30</v>
       </c>
@@ -6863,13 +7860,19 @@
         <v>412</v>
       </c>
       <c r="K31" s="104">
-        <f t="shared" ref="K31" si="1">I31-G31</f>
+        <f t="shared" ref="K31" si="3">I31-G31</f>
         <v>834015017</v>
       </c>
+      <c r="M31" s="239" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; {65} &amp; {477} &amp; {412}\\&amp; {177528576} &amp; {1011543593} &amp; {834015017}\\</v>
+      </c>
       <c r="X31" s="31"/>
-    </row>
-    <row r="32" spans="2:25" ht="15.75" thickBot="1">
-      <c r="B32" s="245"/>
+      <c r="Z31" s="237"/>
+      <c r="AA31" s="243"/>
+    </row>
+    <row r="32" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B32" s="283"/>
       <c r="C32" s="49" t="s">
         <v>34</v>
       </c>
@@ -6901,10 +7904,16 @@
         <f>I32-G32</f>
         <v>834015017</v>
       </c>
+      <c r="M32" s="239" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; {65} &amp; {477} &amp; {412}\\&amp; {177528576} &amp; {1011543593} &amp; {834015017}\\</v>
+      </c>
       <c r="X32" s="31"/>
-    </row>
-    <row r="33" spans="1:24">
-      <c r="B33" s="235" t="s">
+      <c r="Z32" s="237"/>
+      <c r="AA32" s="243"/>
+    </row>
+    <row r="33" spans="1:27">
+      <c r="B33" s="273" t="s">
         <v>27</v>
       </c>
       <c r="C33" s="52" t="s">
@@ -6934,10 +7943,16 @@
       <c r="K33" s="62" t="s">
         <v>22</v>
       </c>
+      <c r="M33" s="239" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; {-} &amp; {-} &amp; {-}\\&amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
       <c r="X33" s="31"/>
-    </row>
-    <row r="34" spans="1:24">
-      <c r="B34" s="236"/>
+      <c r="Z33" s="237"/>
+      <c r="AA33" s="243"/>
+    </row>
+    <row r="34" spans="1:27">
+      <c r="B34" s="274"/>
       <c r="C34" s="54" t="s">
         <v>30</v>
       </c>
@@ -6966,13 +7981,19 @@
         <v>394</v>
       </c>
       <c r="K34" s="92">
-        <f t="shared" ref="K34" si="2">I34-G34</f>
+        <f t="shared" ref="K34" si="4">I34-G34</f>
         <v>789751297</v>
       </c>
+      <c r="M34" s="239" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; {83} &amp; {477} &amp; {394}\\&amp; {221792296} &amp; {1011543593} &amp; {789751297}\\</v>
+      </c>
       <c r="X34" s="31"/>
-    </row>
-    <row r="35" spans="1:24">
-      <c r="B35" s="236"/>
+      <c r="Z34" s="237"/>
+      <c r="AA34" s="243"/>
+    </row>
+    <row r="35" spans="1:27">
+      <c r="B35" s="274"/>
       <c r="C35" s="54" t="s">
         <v>34</v>
       </c>
@@ -7004,12 +8025,20 @@
         <f>I35-G35</f>
         <v>789751297</v>
       </c>
+      <c r="M35" s="239" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp; {83} &amp; {477} &amp; {394}\\&amp; {221792296} &amp; {1011543593} &amp; {789751297}\\</v>
+      </c>
       <c r="X35" s="31"/>
-    </row>
-    <row r="36" spans="1:24">
+      <c r="Z35" s="237"/>
+      <c r="AA35" s="243"/>
+    </row>
+    <row r="36" spans="1:27">
       <c r="X36" s="31"/>
-    </row>
-    <row r="37" spans="1:24" ht="15.75" thickBot="1">
+      <c r="Z36" s="237"/>
+      <c r="AA36" s="243"/>
+    </row>
+    <row r="37" spans="1:27" ht="15.75" thickBot="1">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -7034,8 +8063,11 @@
       <c r="V37" s="10"/>
       <c r="W37" s="10"/>
       <c r="X37" s="32"/>
-    </row>
-    <row r="38" spans="1:24">
+      <c r="Y37" s="257"/>
+      <c r="Z37" s="240"/>
+      <c r="AA37" s="244"/>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" s="71"/>
       <c r="B38" s="71"/>
       <c r="C38" s="71"/>
@@ -7060,48 +8092,54 @@
       <c r="V38" s="71"/>
       <c r="W38" s="71"/>
       <c r="X38" s="31"/>
-    </row>
-    <row r="39" spans="1:24" ht="15.75" thickBot="1">
+      <c r="AA38" s="243"/>
+    </row>
+    <row r="39" spans="1:27" ht="15.75" thickBot="1">
       <c r="X39" s="31"/>
-    </row>
-    <row r="40" spans="1:24" ht="15.75" thickBot="1">
-      <c r="B40" s="225" t="s">
+      <c r="AA39" s="243"/>
+    </row>
+    <row r="40" spans="1:27" ht="15.75" thickBot="1">
+      <c r="B40" s="263" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="226"/>
-      <c r="D40" s="232" t="s">
+      <c r="C40" s="264"/>
+      <c r="D40" s="270" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="221"/>
-      <c r="F40" s="234" t="s">
+      <c r="E40" s="259"/>
+      <c r="F40" s="272" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="221"/>
-      <c r="H40" s="234" t="s">
+      <c r="G40" s="259"/>
+      <c r="H40" s="272" t="s">
         <v>37</v>
       </c>
-      <c r="I40" s="221"/>
-      <c r="J40" s="234" t="s">
+      <c r="I40" s="259"/>
+      <c r="J40" s="272" t="s">
         <v>38</v>
       </c>
-      <c r="K40" s="221"/>
-      <c r="L40" s="234" t="s">
+      <c r="K40" s="259"/>
+      <c r="L40" s="272" t="s">
         <v>39</v>
       </c>
-      <c r="M40" s="221"/>
-      <c r="N40" s="251" t="s">
+      <c r="M40" s="259"/>
+      <c r="N40" s="289" t="s">
         <v>40</v>
       </c>
-      <c r="O40" s="252"/>
+      <c r="O40" s="290"/>
       <c r="P40" s="100"/>
       <c r="Q40" s="100"/>
       <c r="R40" s="100"/>
       <c r="S40" s="100"/>
       <c r="T40" s="71"/>
       <c r="X40" s="31"/>
-    </row>
-    <row r="41" spans="1:24">
-      <c r="B41" s="246" t="s">
+      <c r="Z40" s="293" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA40" s="243"/>
+    </row>
+    <row r="41" spans="1:27">
+      <c r="B41" s="284" t="s">
         <v>23</v>
       </c>
       <c r="C41" s="58" t="s">
@@ -7149,9 +8187,14 @@
       <c r="S41" s="100"/>
       <c r="T41" s="71"/>
       <c r="X41" s="31"/>
-    </row>
-    <row r="42" spans="1:24">
-      <c r="B42" s="247"/>
+      <c r="Z41" s="292" t="str">
+        <f>"&amp; "&amp;"{"&amp;D41&amp;"}"&amp;" &amp; "&amp;"{"&amp;F41&amp;"}"&amp;" &amp; "&amp;"{"&amp;H41&amp;"}"&amp;" &amp; "&amp;"{"&amp;J41&amp;"}"&amp;" &amp; "&amp;"{"&amp;L41&amp;"}"&amp;" &amp; "&amp;"{"&amp;N41&amp;"}"&amp;"\\"&amp;"&amp; "&amp;"{"&amp;E41&amp;"}"&amp;" &amp; "&amp;"{"&amp;G41&amp;"}"&amp;" &amp; "&amp;"{"&amp;I41&amp;"}"&amp;" &amp; "&amp;"{"&amp;K41&amp;"}"&amp;" &amp; "&amp;"{"&amp;M41&amp;"}"&amp;" &amp; "&amp;"{"&amp;O41&amp;"}"&amp;"\\"</f>
+        <v>&amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\&amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="AA41" s="243"/>
+    </row>
+    <row r="42" spans="1:27">
+      <c r="B42" s="285"/>
       <c r="C42" s="23" t="s">
         <v>30</v>
       </c>
@@ -7197,9 +8240,14 @@
       <c r="S42" s="100"/>
       <c r="T42" s="71"/>
       <c r="X42" s="31"/>
-    </row>
-    <row r="43" spans="1:24" ht="15.75" thickBot="1">
-      <c r="B43" s="248"/>
+      <c r="Z42" s="258" t="str">
+        <f t="shared" ref="Z42:Z55" si="5">"&amp; "&amp;"{"&amp;D42&amp;"}"&amp;" &amp; "&amp;"{"&amp;F42&amp;"}"&amp;" &amp; "&amp;"{"&amp;H42&amp;"}"&amp;" &amp; "&amp;"{"&amp;J42&amp;"}"&amp;" &amp; "&amp;"{"&amp;L42&amp;"}"&amp;" &amp; "&amp;"{"&amp;N42&amp;"}"&amp;"\\"&amp;"&amp; "&amp;"{"&amp;E42&amp;"}"&amp;" &amp; "&amp;"{"&amp;G42&amp;"}"&amp;" &amp; "&amp;"{"&amp;I42&amp;"}"&amp;" &amp; "&amp;"{"&amp;K42&amp;"}"&amp;" &amp; "&amp;"{"&amp;M42&amp;"}"&amp;" &amp; "&amp;"{"&amp;O42&amp;"}"&amp;"\\"</f>
+        <v>&amp; {128} &amp; {145} &amp; {291} &amp; {184} &amp; {225} &amp; {279}\\&amp; {98328590} &amp; {83777013} &amp; {234444756} &amp; {123857311} &amp; {139244026} &amp; {118798379}\\</v>
+      </c>
+      <c r="AA42" s="243"/>
+    </row>
+    <row r="43" spans="1:27" ht="15.75" thickBot="1">
+      <c r="B43" s="286"/>
       <c r="C43" s="26" t="s">
         <v>34</v>
       </c>
@@ -7245,9 +8293,14 @@
       <c r="S43" s="100"/>
       <c r="T43" s="71"/>
       <c r="X43" s="31"/>
-    </row>
-    <row r="44" spans="1:24">
-      <c r="B44" s="237" t="s">
+      <c r="Z43" s="258" t="str">
+        <f t="shared" si="5"/>
+        <v>&amp; {263} &amp; {218} &amp; {145} &amp; {225} &amp; {178} &amp; {-}\\&amp; {188174135} &amp; {90973267} &amp; {83777013} &amp; {139244026} &amp; {118964589} &amp; {-}\\</v>
+      </c>
+      <c r="AA43" s="243"/>
+    </row>
+    <row r="44" spans="1:27">
+      <c r="B44" s="275" t="s">
         <v>24</v>
       </c>
       <c r="C44" s="33" t="s">
@@ -7295,9 +8348,14 @@
       <c r="S44" s="100"/>
       <c r="T44" s="71"/>
       <c r="X44" s="31"/>
-    </row>
-    <row r="45" spans="1:24">
-      <c r="B45" s="238"/>
+      <c r="Z44" s="258" t="str">
+        <f t="shared" si="5"/>
+        <v>&amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\&amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="AA44" s="243"/>
+    </row>
+    <row r="45" spans="1:27">
+      <c r="B45" s="276"/>
       <c r="C45" s="36" t="s">
         <v>30</v>
       </c>
@@ -7343,9 +8401,14 @@
       <c r="S45" s="100"/>
       <c r="T45" s="71"/>
       <c r="X45" s="31"/>
-    </row>
-    <row r="46" spans="1:24" ht="15.75" thickBot="1">
-      <c r="B46" s="239"/>
+      <c r="Z45" s="258" t="str">
+        <f t="shared" si="5"/>
+        <v>&amp; {145} &amp; {184} &amp; {213} &amp; {128} &amp; {297} &amp; {-}\\&amp; {83777013} &amp; {123857311} &amp; {87652092} &amp; {98328590} &amp; {235222194} &amp; {-}\\</v>
+      </c>
+      <c r="AA45" s="243"/>
+    </row>
+    <row r="46" spans="1:27" ht="15.75" thickBot="1">
+      <c r="B46" s="277"/>
       <c r="C46" s="37" t="s">
         <v>34</v>
       </c>
@@ -7391,9 +8454,14 @@
       <c r="S46" s="100"/>
       <c r="T46" s="71"/>
       <c r="X46" s="31"/>
-    </row>
-    <row r="47" spans="1:24">
-      <c r="B47" s="240" t="s">
+      <c r="Z46" s="258" t="str">
+        <f t="shared" si="5"/>
+        <v>&amp; {295} &amp; {213} &amp; {145} &amp; {184} &amp; {-} &amp; {-}\\&amp; {225029487} &amp; {87652092} &amp; {83777013} &amp; {123857311} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="AA46" s="243"/>
+    </row>
+    <row r="47" spans="1:27">
+      <c r="B47" s="278" t="s">
         <v>25</v>
       </c>
       <c r="C47" s="40" t="s">
@@ -7441,9 +8509,14 @@
       <c r="S47" s="100"/>
       <c r="T47" s="71"/>
       <c r="X47" s="31"/>
-    </row>
-    <row r="48" spans="1:24">
-      <c r="B48" s="241"/>
+      <c r="Z47" s="258" t="str">
+        <f t="shared" si="5"/>
+        <v>&amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\&amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="AA47" s="243"/>
+    </row>
+    <row r="48" spans="1:27">
+      <c r="B48" s="279"/>
       <c r="C48" s="43" t="s">
         <v>30</v>
       </c>
@@ -7489,9 +8562,14 @@
       <c r="S48" s="100"/>
       <c r="T48" s="71"/>
       <c r="X48" s="31"/>
-    </row>
-    <row r="49" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B49" s="242"/>
+      <c r="Z48" s="258" t="str">
+        <f t="shared" si="5"/>
+        <v>&amp; {184} &amp; {144} &amp; {145} &amp; {306} &amp; {-} &amp; {-}\\&amp; {123857311} &amp; {73673338} &amp; {83777013} &amp; {248117940} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="AA48" s="243"/>
+    </row>
+    <row r="49" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B49" s="280"/>
       <c r="C49" s="44" t="s">
         <v>34</v>
       </c>
@@ -7537,9 +8615,14 @@
       <c r="S49" s="100"/>
       <c r="T49" s="71"/>
       <c r="X49" s="31"/>
-    </row>
-    <row r="50" spans="2:24">
-      <c r="B50" s="243" t="s">
+      <c r="Z49" s="258" t="str">
+        <f t="shared" si="5"/>
+        <v>&amp; {295} &amp; {145} &amp; {184} &amp; {-} &amp; {-} &amp; {-}\\&amp; {225029487} &amp; {83777013} &amp; {123857311} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="AA49" s="243"/>
+    </row>
+    <row r="50" spans="2:27">
+      <c r="B50" s="281" t="s">
         <v>26</v>
       </c>
       <c r="C50" s="47" t="s">
@@ -7587,9 +8670,14 @@
       <c r="S50" s="100"/>
       <c r="T50" s="71"/>
       <c r="X50" s="31"/>
-    </row>
-    <row r="51" spans="2:24">
-      <c r="B51" s="244"/>
+      <c r="Z50" s="258" t="str">
+        <f t="shared" si="5"/>
+        <v>&amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\&amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="AA50" s="243"/>
+    </row>
+    <row r="51" spans="2:27">
+      <c r="B51" s="282"/>
       <c r="C51" s="48" t="s">
         <v>30</v>
       </c>
@@ -7635,9 +8723,14 @@
       <c r="S51" s="100"/>
       <c r="T51" s="71"/>
       <c r="X51" s="31"/>
-    </row>
-    <row r="52" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B52" s="245"/>
+      <c r="Z51" s="258" t="str">
+        <f t="shared" si="5"/>
+        <v>&amp; {213} &amp; {184} &amp; {208} &amp; {278} &amp; {-} &amp; {-}\\&amp; {87652092} &amp; {123857311} &amp; {136819615} &amp; {234927369} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="AA51" s="243"/>
+    </row>
+    <row r="52" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B52" s="283"/>
       <c r="C52" s="49" t="s">
         <v>34</v>
       </c>
@@ -7683,9 +8776,14 @@
       <c r="S52" s="100"/>
       <c r="T52" s="71"/>
       <c r="X52" s="31"/>
-    </row>
-    <row r="53" spans="2:24">
-      <c r="B53" s="235" t="s">
+      <c r="Z52" s="258" t="str">
+        <f t="shared" si="5"/>
+        <v>&amp; {361} &amp; {213} &amp; {208} &amp; {184} &amp; {-} &amp; {-}\\&amp; {262414271} &amp; {87652092} &amp; {136819615} &amp; {123857311} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="AA52" s="243"/>
+    </row>
+    <row r="53" spans="2:27">
+      <c r="B53" s="273" t="s">
         <v>27</v>
       </c>
       <c r="C53" s="56" t="s">
@@ -7733,9 +8831,14 @@
       <c r="S53" s="100"/>
       <c r="T53" s="71"/>
       <c r="X53" s="31"/>
-    </row>
-    <row r="54" spans="2:24">
-      <c r="B54" s="236"/>
+      <c r="Z53" s="258" t="str">
+        <f t="shared" si="5"/>
+        <v>&amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\&amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="AA53" s="243"/>
+    </row>
+    <row r="54" spans="2:27">
+      <c r="B54" s="274"/>
       <c r="C54" s="54" t="s">
         <v>30</v>
       </c>
@@ -7781,9 +8884,14 @@
       <c r="S54" s="100"/>
       <c r="T54" s="71"/>
       <c r="X54" s="31"/>
-    </row>
-    <row r="55" spans="2:24">
-      <c r="B55" s="236"/>
+      <c r="Z54" s="258" t="str">
+        <f t="shared" si="5"/>
+        <v>&amp; {177} &amp; {124} &amp; {145} &amp; {258} &amp; {177} &amp; {-}\\&amp; {112019176} &amp; {97706976} &amp; {83777013} &amp; {96955664} &amp; {118663373} &amp; {-}\\</v>
+      </c>
+      <c r="AA54" s="243"/>
+    </row>
+    <row r="55" spans="2:27">
+      <c r="B55" s="274"/>
       <c r="C55" s="54" t="s">
         <v>34</v>
       </c>
@@ -7829,15 +8937,22 @@
       <c r="S55" s="100"/>
       <c r="T55" s="71"/>
       <c r="X55" s="31"/>
-    </row>
-    <row r="56" spans="2:24" ht="15.75" thickBot="1">
+      <c r="Z55" s="258" t="str">
+        <f t="shared" si="5"/>
+        <v>&amp; {295} &amp; {207} &amp; {145} &amp; {177} &amp; {184} &amp; {-}\\&amp; {225029487} &amp; {79557225} &amp; {83777013} &amp; {112019176} &amp; {123857311} &amp; {-}\\</v>
+      </c>
+      <c r="AA55" s="243"/>
+    </row>
+    <row r="56" spans="2:27" ht="15.75" thickBot="1">
       <c r="X56" s="31"/>
-    </row>
-    <row r="57" spans="2:24" ht="30.75" thickBot="1">
-      <c r="B57" s="249" t="s">
+      <c r="Z56" s="237"/>
+      <c r="AA56" s="243"/>
+    </row>
+    <row r="57" spans="2:27" ht="30.75" thickBot="1">
+      <c r="B57" s="287" t="s">
         <v>42</v>
       </c>
-      <c r="C57" s="250"/>
+      <c r="C57" s="288"/>
       <c r="D57" s="182" t="s">
         <v>50</v>
       </c>
@@ -7862,10 +8977,15 @@
       <c r="K57" s="183" t="s">
         <v>57</v>
       </c>
+      <c r="M57" s="294" t="s">
+        <v>59</v>
+      </c>
       <c r="X57" s="31"/>
-    </row>
-    <row r="58" spans="2:24">
-      <c r="B58" s="246" t="s">
+      <c r="Z57" s="237"/>
+      <c r="AA57" s="243"/>
+    </row>
+    <row r="58" spans="2:27">
+      <c r="B58" s="284" t="s">
         <v>23</v>
       </c>
       <c r="C58" s="58" t="s">
@@ -7895,10 +9015,16 @@
       <c r="K58" s="95" t="s">
         <v>22</v>
       </c>
+      <c r="M58" s="97" t="str">
+        <f>"&amp; "&amp;"{"&amp;F58&amp;"}"&amp;" &amp; "&amp;"{"&amp;H58&amp;"}"&amp;" &amp; "&amp;"{"&amp;J58&amp;"}"&amp;"\\"&amp;"&amp; "&amp;"{"&amp;G58&amp;"}"&amp;" &amp; "&amp;"{"&amp;I58&amp;"}"&amp;" &amp; "&amp;"{"&amp;K58&amp;"}"&amp;"\\"</f>
+        <v>&amp; {-} &amp; {-} &amp; {-}\\&amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
       <c r="X58" s="31"/>
-    </row>
-    <row r="59" spans="2:24">
-      <c r="B59" s="247"/>
+      <c r="Z58" s="237"/>
+      <c r="AA58" s="243"/>
+    </row>
+    <row r="59" spans="2:27">
+      <c r="B59" s="285"/>
       <c r="C59" s="23" t="s">
         <v>30</v>
       </c>
@@ -7930,10 +9056,16 @@
         <f>I59-G59</f>
         <v>2807276783</v>
       </c>
+      <c r="M59" s="239" t="str">
+        <f t="shared" ref="M59:M72" si="6">"&amp; "&amp;"{"&amp;F59&amp;"}"&amp;" &amp; "&amp;"{"&amp;H59&amp;"}"&amp;" &amp; "&amp;"{"&amp;J59&amp;"}"&amp;"\\"&amp;"&amp; "&amp;"{"&amp;G59&amp;"}"&amp;" &amp; "&amp;"{"&amp;I59&amp;"}"&amp;" &amp; "&amp;"{"&amp;K59&amp;"}"&amp;"\\"</f>
+        <v>&amp; {1216} &amp; {7430} &amp; {6214}\\&amp; {743051335} &amp; {3550328118} &amp; {2807276783}\\</v>
+      </c>
       <c r="X59" s="31"/>
-    </row>
-    <row r="60" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B60" s="248"/>
+      <c r="Z59" s="237"/>
+      <c r="AA59" s="243"/>
+    </row>
+    <row r="60" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B60" s="286"/>
       <c r="C60" s="26" t="s">
         <v>34</v>
       </c>
@@ -7965,10 +9097,16 @@
         <f>I60-G60</f>
         <v>2968112176</v>
       </c>
+      <c r="M60" s="239" t="str">
+        <f t="shared" si="6"/>
+        <v>&amp; {1001} &amp; {7430} &amp; {6429}\\&amp; {582215942} &amp; {3550328118} &amp; {2968112176}\\</v>
+      </c>
       <c r="X60" s="31"/>
-    </row>
-    <row r="61" spans="2:24">
-      <c r="B61" s="237" t="s">
+      <c r="Z60" s="237"/>
+      <c r="AA60" s="243"/>
+    </row>
+    <row r="61" spans="2:27">
+      <c r="B61" s="275" t="s">
         <v>24</v>
       </c>
       <c r="C61" s="33" t="s">
@@ -7998,10 +9136,16 @@
       <c r="K61" s="88" t="s">
         <v>22</v>
       </c>
+      <c r="M61" s="239" t="str">
+        <f t="shared" si="6"/>
+        <v>&amp; {-} &amp; {-} &amp; {-}\\&amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
       <c r="X61" s="31"/>
-    </row>
-    <row r="62" spans="2:24">
-      <c r="B62" s="238"/>
+      <c r="Z61" s="237"/>
+      <c r="AA61" s="243"/>
+    </row>
+    <row r="62" spans="2:27">
+      <c r="B62" s="276"/>
       <c r="C62" s="36" t="s">
         <v>30</v>
       </c>
@@ -8033,10 +9177,16 @@
         <f>I62-G62</f>
         <v>2965664885</v>
       </c>
+      <c r="M62" s="239" t="str">
+        <f t="shared" si="6"/>
+        <v>&amp; {942} &amp; {7430} &amp; {6488}\\&amp; {584663233} &amp; {3550328118} &amp; {2965664885}\\</v>
+      </c>
       <c r="X62" s="31"/>
-    </row>
-    <row r="63" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B63" s="239"/>
+      <c r="Z62" s="237"/>
+      <c r="AA62" s="243"/>
+    </row>
+    <row r="63" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B63" s="277"/>
       <c r="C63" s="37" t="s">
         <v>34</v>
       </c>
@@ -8068,10 +9218,16 @@
         <f>I63-G63</f>
         <v>3057330674</v>
       </c>
+      <c r="M63" s="239" t="str">
+        <f t="shared" si="6"/>
+        <v>&amp; {821} &amp; {7430} &amp; {6609}\\&amp; {492997444} &amp; {3550328118} &amp; {3057330674}\\</v>
+      </c>
       <c r="X63" s="31"/>
-    </row>
-    <row r="64" spans="2:24">
-      <c r="B64" s="240" t="s">
+      <c r="Z63" s="237"/>
+      <c r="AA63" s="243"/>
+    </row>
+    <row r="64" spans="2:27">
+      <c r="B64" s="278" t="s">
         <v>25</v>
       </c>
       <c r="C64" s="40" t="s">
@@ -8101,10 +9257,16 @@
       <c r="K64" s="90" t="s">
         <v>22</v>
       </c>
+      <c r="M64" s="239" t="str">
+        <f t="shared" si="6"/>
+        <v>&amp; {-} &amp; {-} &amp; {-}\\&amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
       <c r="X64" s="31"/>
-    </row>
-    <row r="65" spans="1:24">
-      <c r="B65" s="241"/>
+      <c r="Z64" s="237"/>
+      <c r="AA64" s="243"/>
+    </row>
+    <row r="65" spans="1:27">
+      <c r="B65" s="279"/>
       <c r="C65" s="43" t="s">
         <v>30</v>
       </c>
@@ -8136,10 +9298,16 @@
         <f>I65-G65</f>
         <v>3033730566</v>
       </c>
+      <c r="M65" s="239" t="str">
+        <f t="shared" si="6"/>
+        <v>&amp; {771} &amp; {7430} &amp; {6659}\\&amp; {516597552} &amp; {3550328118} &amp; {3033730566}\\</v>
+      </c>
       <c r="X65" s="31"/>
-    </row>
-    <row r="66" spans="1:24" ht="15.75" thickBot="1">
-      <c r="B66" s="242"/>
+      <c r="Z65" s="237"/>
+      <c r="AA65" s="243"/>
+    </row>
+    <row r="66" spans="1:27" ht="15.75" thickBot="1">
+      <c r="B66" s="280"/>
       <c r="C66" s="44" t="s">
         <v>34</v>
       </c>
@@ -8171,10 +9339,16 @@
         <f>I66-G66</f>
         <v>3129192419</v>
       </c>
+      <c r="M66" s="239" t="str">
+        <f t="shared" si="6"/>
+        <v>&amp; {619} &amp; {7430} &amp; {6811}\\&amp; {421135699} &amp; {3550328118} &amp; {3129192419}\\</v>
+      </c>
       <c r="X66" s="31"/>
-    </row>
-    <row r="67" spans="1:24">
-      <c r="B67" s="243" t="s">
+      <c r="Z66" s="237"/>
+      <c r="AA66" s="243"/>
+    </row>
+    <row r="67" spans="1:27">
+      <c r="B67" s="281" t="s">
         <v>26</v>
       </c>
       <c r="C67" s="47" t="s">
@@ -8204,10 +9378,16 @@
       <c r="K67" s="87" t="s">
         <v>22</v>
       </c>
+      <c r="M67" s="239" t="str">
+        <f t="shared" si="6"/>
+        <v>&amp; {-} &amp; {-} &amp; {-}\\&amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
       <c r="X67" s="31"/>
-    </row>
-    <row r="68" spans="1:24">
-      <c r="B68" s="244"/>
+      <c r="Z67" s="237"/>
+      <c r="AA67" s="243"/>
+    </row>
+    <row r="68" spans="1:27">
+      <c r="B68" s="282"/>
       <c r="C68" s="48" t="s">
         <v>30</v>
       </c>
@@ -8239,10 +9419,16 @@
         <f>I68-G68</f>
         <v>2998530698</v>
       </c>
+      <c r="M68" s="239" t="str">
+        <f t="shared" si="6"/>
+        <v>&amp; {866} &amp; {7430} &amp; {6564}\\&amp; {551797420} &amp; {3550328118} &amp; {2998530698}\\</v>
+      </c>
       <c r="X68" s="31"/>
-    </row>
-    <row r="69" spans="1:24" ht="15.75" thickBot="1">
-      <c r="B69" s="245"/>
+      <c r="Z68" s="237"/>
+      <c r="AA68" s="243"/>
+    </row>
+    <row r="69" spans="1:27" ht="15.75" thickBot="1">
+      <c r="B69" s="283"/>
       <c r="C69" s="49" t="s">
         <v>34</v>
       </c>
@@ -8274,10 +9460,16 @@
         <f>I69-G69</f>
         <v>2976476347</v>
       </c>
+      <c r="M69" s="239" t="str">
+        <f t="shared" si="6"/>
+        <v>&amp; {943} &amp; {7430} &amp; {6487}\\&amp; {573851771} &amp; {3550328118} &amp; {2976476347}\\</v>
+      </c>
       <c r="X69" s="31"/>
-    </row>
-    <row r="70" spans="1:24">
-      <c r="B70" s="235" t="s">
+      <c r="Z69" s="237"/>
+      <c r="AA69" s="243"/>
+    </row>
+    <row r="70" spans="1:27">
+      <c r="B70" s="273" t="s">
         <v>27</v>
       </c>
       <c r="C70" s="52" t="s">
@@ -8307,10 +9499,16 @@
       <c r="K70" s="217" t="s">
         <v>22</v>
       </c>
+      <c r="M70" s="239" t="str">
+        <f t="shared" si="6"/>
+        <v>&amp; {-} &amp; {-} &amp; {-}\\&amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
       <c r="X70" s="31"/>
-    </row>
-    <row r="71" spans="1:24">
-      <c r="B71" s="236"/>
+      <c r="Z70" s="237"/>
+      <c r="AA70" s="243"/>
+    </row>
+    <row r="71" spans="1:27">
+      <c r="B71" s="274"/>
       <c r="C71" s="54" t="s">
         <v>30</v>
       </c>
@@ -8342,10 +9540,16 @@
         <f>I71-G71</f>
         <v>3066113695</v>
       </c>
+      <c r="M71" s="239" t="str">
+        <f t="shared" si="6"/>
+        <v>&amp; {861} &amp; {7430} &amp; {6569}\\&amp; {484214423} &amp; {3550328118} &amp; {3066113695}\\</v>
+      </c>
       <c r="X71" s="31"/>
-    </row>
-    <row r="72" spans="1:24">
-      <c r="B72" s="236"/>
+      <c r="Z71" s="237"/>
+      <c r="AA71" s="243"/>
+    </row>
+    <row r="72" spans="1:27">
+      <c r="B72" s="274"/>
       <c r="C72" s="54" t="s">
         <v>34</v>
       </c>
@@ -8377,12 +9581,19 @@
         <f>I72-G72</f>
         <v>2952378321</v>
       </c>
+      <c r="M72" s="239" t="str">
+        <f t="shared" si="6"/>
+        <v>&amp; {987} &amp; {7430} &amp; {6443}\\&amp; {597949797} &amp; {3550328118} &amp; {2952378321}\\</v>
+      </c>
       <c r="X72" s="31"/>
-    </row>
-    <row r="73" spans="1:24">
+      <c r="Z72" s="237"/>
+      <c r="AA72" s="243"/>
+    </row>
+    <row r="73" spans="1:27">
       <c r="X73" s="31"/>
-    </row>
-    <row r="74" spans="1:24" ht="15.75" thickBot="1">
+      <c r="AA73" s="243"/>
+    </row>
+    <row r="74" spans="1:27" ht="15.75" thickBot="1">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -8407,43 +9618,52 @@
       <c r="V74" s="10"/>
       <c r="W74" s="10"/>
       <c r="X74" s="32"/>
-    </row>
-    <row r="75" spans="1:24">
+      <c r="Y74" s="257"/>
+      <c r="Z74" s="240"/>
+      <c r="AA74" s="244"/>
+    </row>
+    <row r="75" spans="1:27">
       <c r="X75" s="31"/>
-    </row>
-    <row r="76" spans="1:24" ht="15.75" thickBot="1">
+      <c r="AA75" s="243"/>
+    </row>
+    <row r="76" spans="1:27" ht="15.75" thickBot="1">
       <c r="X76" s="31"/>
-    </row>
-    <row r="77" spans="1:24" ht="15.75" thickBot="1">
-      <c r="B77" s="225" t="s">
+      <c r="AA76" s="243"/>
+    </row>
+    <row r="77" spans="1:27" ht="15.75" thickBot="1">
+      <c r="B77" s="263" t="s">
         <v>43</v>
       </c>
-      <c r="C77" s="226"/>
-      <c r="D77" s="232" t="s">
+      <c r="C77" s="264"/>
+      <c r="D77" s="270" t="s">
         <v>35</v>
       </c>
-      <c r="E77" s="221"/>
-      <c r="F77" s="234" t="s">
+      <c r="E77" s="259"/>
+      <c r="F77" s="272" t="s">
         <v>36</v>
       </c>
-      <c r="G77" s="221"/>
-      <c r="H77" s="234" t="s">
+      <c r="G77" s="259"/>
+      <c r="H77" s="272" t="s">
         <v>37</v>
       </c>
-      <c r="I77" s="221"/>
-      <c r="J77" s="234" t="s">
+      <c r="I77" s="259"/>
+      <c r="J77" s="272" t="s">
         <v>38</v>
       </c>
-      <c r="K77" s="221"/>
-      <c r="L77" s="234" t="s">
+      <c r="K77" s="259"/>
+      <c r="L77" s="272" t="s">
         <v>39</v>
       </c>
-      <c r="M77" s="221"/>
+      <c r="M77" s="259"/>
       <c r="N77" s="220"/>
       <c r="X77" s="31"/>
-    </row>
-    <row r="78" spans="1:24">
-      <c r="B78" s="246" t="s">
+      <c r="Z77" s="293" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA77" s="243"/>
+    </row>
+    <row r="78" spans="1:27">
+      <c r="B78" s="284" t="s">
         <v>23</v>
       </c>
       <c r="C78" s="58" t="s">
@@ -8461,21 +9681,34 @@
       <c r="G78" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="H78" s="150" t="s">
-        <v>22</v>
-      </c>
-      <c r="I78" s="150" t="s">
-        <v>22</v>
-      </c>
-      <c r="J78" s="93"/>
-      <c r="K78" s="94"/>
-      <c r="L78" s="93"/>
-      <c r="M78" s="94"/>
+      <c r="H78" s="256" t="s">
+        <v>22</v>
+      </c>
+      <c r="I78" s="256" t="s">
+        <v>22</v>
+      </c>
+      <c r="J78" s="255" t="s">
+        <v>22</v>
+      </c>
+      <c r="K78" s="256" t="s">
+        <v>22</v>
+      </c>
+      <c r="L78" s="255" t="s">
+        <v>22</v>
+      </c>
+      <c r="M78" s="256" t="s">
+        <v>22</v>
+      </c>
       <c r="N78" s="220"/>
       <c r="X78" s="31"/>
-    </row>
-    <row r="79" spans="1:24">
-      <c r="B79" s="247"/>
+      <c r="Z78" s="292" t="str">
+        <f>"&amp; "&amp;"{"&amp;D78&amp;"}"&amp;" &amp; "&amp;"{"&amp;F78&amp;"}"&amp;" &amp; "&amp;"{"&amp;H78&amp;"}"&amp;" &amp; "&amp;"{"&amp;J78&amp;"}"&amp;" &amp; "&amp;"{"&amp;L78&amp;"}"&amp;"\\"&amp;"&amp; "&amp;"{"&amp;E78&amp;"}"&amp;" &amp; "&amp;"{"&amp;G78&amp;"}"&amp;" &amp; "&amp;"{"&amp;I78&amp;"}"&amp;" &amp; "&amp;"{"&amp;K78&amp;"}"&amp;" &amp; "&amp;"{"&amp;M78&amp;"}"&amp;"\\"</f>
+        <v>&amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\&amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="AA78" s="243"/>
+    </row>
+    <row r="79" spans="1:27">
+      <c r="B79" s="285"/>
       <c r="C79" s="23" t="s">
         <v>30</v>
       </c>
@@ -8511,87 +9744,102 @@
       </c>
       <c r="N79" s="220"/>
       <c r="X79" s="31"/>
-    </row>
-    <row r="80" spans="1:24" ht="15.75" thickBot="1">
-      <c r="B80" s="248"/>
+      <c r="Z79" s="258" t="str">
+        <f t="shared" ref="Z79:Z92" si="7">"&amp; "&amp;"{"&amp;D79&amp;"}"&amp;" &amp; "&amp;"{"&amp;F79&amp;"}"&amp;" &amp; "&amp;"{"&amp;H79&amp;"}"&amp;" &amp; "&amp;"{"&amp;J79&amp;"}"&amp;" &amp; "&amp;"{"&amp;L79&amp;"}"&amp;"\\"&amp;"&amp; "&amp;"{"&amp;E79&amp;"}"&amp;" &amp; "&amp;"{"&amp;G79&amp;"}"&amp;" &amp; "&amp;"{"&amp;I79&amp;"}"&amp;" &amp; "&amp;"{"&amp;K79&amp;"}"&amp;" &amp; "&amp;"{"&amp;M79&amp;"}"&amp;"\\"</f>
+        <v>&amp; {115} &amp; {78} &amp; {129} &amp; {147} &amp; {150}\\&amp; {34284495} &amp; {18113713} &amp; {17388937} &amp; {41395375} &amp; {21336604}\\</v>
+      </c>
+      <c r="AA79" s="243"/>
+    </row>
+    <row r="80" spans="1:27" ht="15.75" thickBot="1">
+      <c r="B80" s="286"/>
       <c r="C80" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D80" s="30">
+      <c r="D80" s="242">
         <v>168</v>
       </c>
-      <c r="E80" s="27">
+      <c r="E80" s="241">
         <v>68484106</v>
       </c>
-      <c r="F80" s="30">
+      <c r="F80" s="242">
         <v>129</v>
       </c>
-      <c r="G80" s="27">
+      <c r="G80" s="241">
         <v>17388937</v>
       </c>
-      <c r="H80" s="30">
+      <c r="H80" s="242">
         <v>78</v>
       </c>
-      <c r="I80" s="27">
+      <c r="I80" s="241">
         <v>18113713</v>
       </c>
-      <c r="J80" s="30">
+      <c r="J80" s="242">
         <v>150</v>
       </c>
-      <c r="K80" s="27">
+      <c r="K80" s="241">
         <v>21336604</v>
       </c>
-      <c r="L80" s="30">
+      <c r="L80" s="242">
         <v>147</v>
       </c>
-      <c r="M80" s="27">
+      <c r="M80" s="241">
         <v>41395375</v>
       </c>
       <c r="N80" s="220"/>
       <c r="X80" s="31"/>
-    </row>
-    <row r="81" spans="2:24">
-      <c r="B81" s="237" t="s">
+      <c r="Z80" s="258" t="str">
+        <f t="shared" si="7"/>
+        <v>&amp; {168} &amp; {129} &amp; {78} &amp; {150} &amp; {147}\\&amp; {68484106} &amp; {17388937} &amp; {18113713} &amp; {21336604} &amp; {41395375}\\</v>
+      </c>
+      <c r="AA80" s="243"/>
+    </row>
+    <row r="81" spans="2:27">
+      <c r="B81" s="275" t="s">
         <v>24</v>
       </c>
       <c r="C81" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D81" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="E81" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="F81" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="H81" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="I81" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="J81" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="K81" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="L81" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="M81" s="86" t="s">
+      <c r="D81" s="253" t="s">
+        <v>22</v>
+      </c>
+      <c r="E81" s="253" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81" s="253" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" s="253" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" s="253" t="s">
+        <v>22</v>
+      </c>
+      <c r="I81" s="253" t="s">
+        <v>22</v>
+      </c>
+      <c r="J81" s="253" t="s">
+        <v>22</v>
+      </c>
+      <c r="K81" s="253" t="s">
+        <v>22</v>
+      </c>
+      <c r="L81" s="253" t="s">
+        <v>22</v>
+      </c>
+      <c r="M81" s="253" t="s">
         <v>22</v>
       </c>
       <c r="N81" s="220"/>
       <c r="X81" s="31"/>
-    </row>
-    <row r="82" spans="2:24">
-      <c r="B82" s="238"/>
+      <c r="Z81" s="258" t="str">
+        <f t="shared" si="7"/>
+        <v>&amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\&amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="AA81" s="243"/>
+    </row>
+    <row r="82" spans="2:27">
+      <c r="B82" s="276"/>
       <c r="C82" s="36" t="s">
         <v>30</v>
       </c>
@@ -8627,9 +9875,14 @@
       </c>
       <c r="N82" s="220"/>
       <c r="X82" s="31"/>
-    </row>
-    <row r="83" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B83" s="239"/>
+      <c r="Z82" s="258" t="str">
+        <f t="shared" si="7"/>
+        <v>&amp; {150} &amp; {115} &amp; {78} &amp; {147} &amp; {-}\\&amp; {21336604} &amp; {34284495} &amp; {18113713} &amp; {41395375} &amp; {-}\\</v>
+      </c>
+      <c r="AA82" s="243"/>
+    </row>
+    <row r="83" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B83" s="277"/>
       <c r="C83" s="37" t="s">
         <v>34</v>
       </c>
@@ -8651,10 +9904,10 @@
       <c r="I83" s="35">
         <v>21336604</v>
       </c>
-      <c r="J83" s="34">
+      <c r="J83" s="245">
         <v>147</v>
       </c>
-      <c r="K83" s="35">
+      <c r="K83" s="246">
         <v>41395375</v>
       </c>
       <c r="L83" s="64" t="s">
@@ -8665,9 +9918,14 @@
       </c>
       <c r="N83" s="220"/>
       <c r="X83" s="31"/>
-    </row>
-    <row r="84" spans="2:24">
-      <c r="B84" s="240" t="s">
+      <c r="Z83" s="258" t="str">
+        <f t="shared" si="7"/>
+        <v>&amp; {78} &amp; {115} &amp; {150} &amp; {147} &amp; {-}\\&amp; {18113713} &amp; {34284495} &amp; {21336604} &amp; {41395375} &amp; {-}\\</v>
+      </c>
+      <c r="AA83" s="243"/>
+    </row>
+    <row r="84" spans="2:27">
+      <c r="B84" s="278" t="s">
         <v>25</v>
       </c>
       <c r="C84" s="40" t="s">
@@ -8691,10 +9949,10 @@
       <c r="I84" s="219" t="s">
         <v>22</v>
       </c>
-      <c r="J84" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="K84" s="85" t="s">
+      <c r="J84" s="254" t="s">
+        <v>22</v>
+      </c>
+      <c r="K84" s="254" t="s">
         <v>22</v>
       </c>
       <c r="L84" s="85" t="s">
@@ -8705,9 +9963,14 @@
       </c>
       <c r="N84" s="220"/>
       <c r="X84" s="31"/>
-    </row>
-    <row r="85" spans="2:24">
-      <c r="B85" s="241"/>
+      <c r="Z84" s="258" t="str">
+        <f t="shared" si="7"/>
+        <v>&amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\&amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="AA84" s="243"/>
+    </row>
+    <row r="85" spans="2:27">
+      <c r="B85" s="279"/>
       <c r="C85" s="43" t="s">
         <v>30</v>
       </c>
@@ -8729,10 +9992,10 @@
       <c r="I85" s="42">
         <v>35217825</v>
       </c>
-      <c r="J85" s="41">
+      <c r="J85" s="247">
         <v>185</v>
       </c>
-      <c r="K85" s="42">
+      <c r="K85" s="248">
         <v>21355641</v>
       </c>
       <c r="L85" s="65" t="s">
@@ -8743,9 +10006,14 @@
       </c>
       <c r="N85" s="220"/>
       <c r="X85" s="31"/>
-    </row>
-    <row r="86" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B86" s="242"/>
+      <c r="Z85" s="258" t="str">
+        <f t="shared" si="7"/>
+        <v>&amp; {78} &amp; {102} &amp; {129} &amp; {185} &amp; {-}\\&amp; {18113713} &amp; {31882804} &amp; {35217825} &amp; {21355641} &amp; {-}\\</v>
+      </c>
+      <c r="AA85" s="243"/>
+    </row>
+    <row r="86" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B86" s="280"/>
       <c r="C86" s="44" t="s">
         <v>34</v>
       </c>
@@ -8767,10 +10035,10 @@
       <c r="I86" s="46">
         <v>31882804</v>
       </c>
-      <c r="J86" s="41">
+      <c r="J86" s="249">
         <v>129</v>
       </c>
-      <c r="K86" s="42">
+      <c r="K86" s="250">
         <v>35217825</v>
       </c>
       <c r="L86" s="66" t="s">
@@ -8781,9 +10049,14 @@
       </c>
       <c r="N86" s="220"/>
       <c r="X86" s="31"/>
-    </row>
-    <row r="87" spans="2:24">
-      <c r="B87" s="243" t="s">
+      <c r="Z86" s="258" t="str">
+        <f t="shared" si="7"/>
+        <v>&amp; {185} &amp; {78} &amp; {102} &amp; {129} &amp; {-}\\&amp; {21355641} &amp; {18113713} &amp; {31882804} &amp; {35217825} &amp; {-}\\</v>
+      </c>
+      <c r="AA86" s="243"/>
+    </row>
+    <row r="87" spans="2:27">
+      <c r="B87" s="281" t="s">
         <v>26</v>
       </c>
       <c r="C87" s="47" t="s">
@@ -8807,10 +10080,10 @@
       <c r="I87" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="J87" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="K87" s="67" t="s">
+      <c r="J87" s="252" t="s">
+        <v>22</v>
+      </c>
+      <c r="K87" s="252" t="s">
         <v>22</v>
       </c>
       <c r="L87" s="67" t="s">
@@ -8821,9 +10094,14 @@
       </c>
       <c r="N87" s="220"/>
       <c r="X87" s="31"/>
-    </row>
-    <row r="88" spans="2:24">
-      <c r="B88" s="244"/>
+      <c r="Z87" s="258" t="str">
+        <f t="shared" si="7"/>
+        <v>&amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\&amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="AA87" s="243"/>
+    </row>
+    <row r="88" spans="2:27">
+      <c r="B88" s="282"/>
       <c r="C88" s="48" t="s">
         <v>30</v>
       </c>
@@ -8859,9 +10137,14 @@
       </c>
       <c r="N88" s="220"/>
       <c r="X88" s="31"/>
-    </row>
-    <row r="89" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B89" s="245"/>
+      <c r="Z88" s="258" t="str">
+        <f t="shared" si="7"/>
+        <v>&amp; {115} &amp; {78} &amp; {150} &amp; {147} &amp; {129}\\&amp; {34284495} &amp; {18113713} &amp; {21336604} &amp; {41395375} &amp; {17388937}\\</v>
+      </c>
+      <c r="AA88" s="243"/>
+    </row>
+    <row r="89" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B89" s="283"/>
       <c r="C89" s="49" t="s">
         <v>34</v>
       </c>
@@ -8897,9 +10180,14 @@
       </c>
       <c r="N89" s="220"/>
       <c r="X89" s="31"/>
-    </row>
-    <row r="90" spans="2:24">
-      <c r="B90" s="235" t="s">
+      <c r="Z89" s="258" t="str">
+        <f t="shared" si="7"/>
+        <v>&amp; {129} &amp; {78} &amp; {115} &amp; {150} &amp; {147}\\&amp; {17388937} &amp; {18113713} &amp; {34284495} &amp; {21336604} &amp; {41395375}\\</v>
+      </c>
+      <c r="AA89" s="243"/>
+    </row>
+    <row r="90" spans="2:27">
+      <c r="B90" s="273" t="s">
         <v>27</v>
       </c>
       <c r="C90" s="56" t="s">
@@ -8937,9 +10225,14 @@
       </c>
       <c r="N90" s="220"/>
       <c r="X90" s="31"/>
-    </row>
-    <row r="91" spans="2:24">
-      <c r="B91" s="236"/>
+      <c r="Z90" s="258" t="str">
+        <f t="shared" si="7"/>
+        <v>&amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\&amp; {-} &amp; {-} &amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="AA90" s="243"/>
+    </row>
+    <row r="91" spans="2:27">
+      <c r="B91" s="274"/>
       <c r="C91" s="54" t="s">
         <v>30</v>
       </c>
@@ -8975,9 +10268,14 @@
       </c>
       <c r="N91" s="220"/>
       <c r="X91" s="31"/>
-    </row>
-    <row r="92" spans="2:24">
-      <c r="B92" s="236"/>
+      <c r="Z91" s="258" t="str">
+        <f t="shared" si="7"/>
+        <v>&amp; {102} &amp; {78} &amp; {150} &amp; {129} &amp; {147}\\&amp; {31882804} &amp; {18113713} &amp; {21336604} &amp; {17388937} &amp; {41395375}\\</v>
+      </c>
+      <c r="AA91" s="243"/>
+    </row>
+    <row r="92" spans="2:27">
+      <c r="B92" s="274"/>
       <c r="C92" s="54" t="s">
         <v>34</v>
       </c>
@@ -9013,15 +10311,22 @@
       </c>
       <c r="N92" s="220"/>
       <c r="X92" s="31"/>
-    </row>
-    <row r="93" spans="2:24" ht="15.75" thickBot="1">
+      <c r="Z92" s="258" t="str">
+        <f t="shared" si="7"/>
+        <v>&amp; {129} &amp; {78} &amp; {102} &amp; {150} &amp; {147}\\&amp; {17388937} &amp; {18113713} &amp; {31882804} &amp; {21336604} &amp; {41395375}\\</v>
+      </c>
+      <c r="AA92" s="243"/>
+    </row>
+    <row r="93" spans="2:27" ht="15.75" thickBot="1">
       <c r="X93" s="31"/>
-    </row>
-    <row r="94" spans="2:24" ht="30.75" thickBot="1">
-      <c r="B94" s="249" t="s">
+      <c r="Z93" s="251"/>
+      <c r="AA93" s="243"/>
+    </row>
+    <row r="94" spans="2:27" ht="30.75" thickBot="1">
+      <c r="B94" s="287" t="s">
         <v>43</v>
       </c>
-      <c r="C94" s="250"/>
+      <c r="C94" s="288"/>
       <c r="D94" s="182" t="s">
         <v>50</v>
       </c>
@@ -9046,10 +10351,15 @@
       <c r="K94" s="183" t="s">
         <v>57</v>
       </c>
+      <c r="M94" s="294" t="s">
+        <v>59</v>
+      </c>
       <c r="X94" s="31"/>
-    </row>
-    <row r="95" spans="2:24">
-      <c r="B95" s="246" t="s">
+      <c r="Z94" s="251"/>
+      <c r="AA94" s="243"/>
+    </row>
+    <row r="95" spans="2:27">
+      <c r="B95" s="284" t="s">
         <v>23</v>
       </c>
       <c r="C95" s="58" t="s">
@@ -9079,10 +10389,16 @@
       <c r="K95" s="150" t="s">
         <v>22</v>
       </c>
+      <c r="M95" s="97" t="str">
+        <f>"&amp; "&amp;"{"&amp;F95&amp;"}"&amp;" &amp; "&amp;"{"&amp;H95&amp;"}"&amp;" &amp; "&amp;"{"&amp;J95&amp;"}"&amp;"\\"&amp;"&amp; "&amp;"{"&amp;G95&amp;"}"&amp;" &amp; "&amp;"{"&amp;I95&amp;"}"&amp;" &amp; "&amp;"{"&amp;K95&amp;"}"&amp;"\\"</f>
+        <v>&amp; {-} &amp; {-} &amp; {-}\\&amp; {-} &amp; {-} &amp; {-}\\</v>
+      </c>
       <c r="X95" s="31"/>
-    </row>
-    <row r="96" spans="2:24">
-      <c r="B96" s="247"/>
+      <c r="Z95" s="251"/>
+      <c r="AA95" s="243"/>
+    </row>
+    <row r="96" spans="2:27">
+      <c r="B96" s="285"/>
       <c r="C96" s="23" t="s">
         <v>30</v>
       </c>
@@ -9114,10 +10430,16 @@
         <f>I96-G96</f>
         <v>932677639</v>
       </c>
+      <c r="M96" s="239" t="str">
+        <f t="shared" ref="M96:M109" si="8">"&amp; "&amp;"{"&amp;F96&amp;"}"&amp;" &amp; "&amp;"{"&amp;H96&amp;"}"&amp;" &amp; "&amp;"{"&amp;J96&amp;"}"&amp;"\\"&amp;"&amp; "&amp;"{"&amp;G96&amp;"}"&amp;" &amp; "&amp;"{"&amp;I96&amp;"}"&amp;" &amp; "&amp;"{"&amp;K96&amp;"}"&amp;"\\"</f>
+        <v>&amp; {610} &amp; {6394} &amp; {5784}\\&amp; {130057469} &amp; {1062735108} &amp; {932677639}\\</v>
+      </c>
       <c r="X96" s="31"/>
-    </row>
-    <row r="97" spans="1:24" ht="15.75" thickBot="1">
-      <c r="B97" s="248"/>
+      <c r="Z96" s="251"/>
+      <c r="AA96" s="243"/>
+    </row>
+    <row r="97" spans="1:27" ht="15.75" thickBot="1">
+      <c r="B97" s="286"/>
       <c r="C97" s="26" t="s">
         <v>34</v>
       </c>
@@ -9149,10 +10471,16 @@
         <f>I97-G97</f>
         <v>905162172</v>
       </c>
+      <c r="M97" s="239" t="str">
+        <f t="shared" si="8"/>
+        <v>&amp; {661} &amp; {6394} &amp; {5733}\\&amp; {157572936} &amp; {1062735108} &amp; {905162172}\\</v>
+      </c>
       <c r="X97" s="31"/>
-    </row>
-    <row r="98" spans="1:24">
-      <c r="B98" s="237" t="s">
+      <c r="Z97" s="251"/>
+      <c r="AA97" s="243"/>
+    </row>
+    <row r="98" spans="1:27">
+      <c r="B98" s="275" t="s">
         <v>24</v>
       </c>
       <c r="C98" s="33" t="s">
@@ -9182,10 +10510,16 @@
       <c r="K98" s="158" t="s">
         <v>22</v>
       </c>
+      <c r="M98" s="239" t="str">
+        <f t="shared" si="8"/>
+        <v>&amp; {-} &amp; {6394} &amp; {-}\\&amp; {-} &amp; {1062735108} &amp; {-}\\</v>
+      </c>
       <c r="X98" s="31"/>
-    </row>
-    <row r="99" spans="1:24">
-      <c r="B99" s="238"/>
+      <c r="Z98" s="251"/>
+      <c r="AA98" s="243"/>
+    </row>
+    <row r="99" spans="1:27">
+      <c r="B99" s="276"/>
       <c r="C99" s="36" t="s">
         <v>30</v>
       </c>
@@ -9214,13 +10548,19 @@
         <v>5911</v>
       </c>
       <c r="K99" s="128">
-        <f t="shared" ref="K99:K100" si="3">I99-G99</f>
+        <f t="shared" ref="K99:K100" si="9">I99-G99</f>
         <v>949971068</v>
       </c>
+      <c r="M99" s="239" t="str">
+        <f t="shared" si="8"/>
+        <v>&amp; {483} &amp; {6394} &amp; {5911}\\&amp; {112764040} &amp; {1062735108} &amp; {949971068}\\</v>
+      </c>
       <c r="X99" s="31"/>
-    </row>
-    <row r="100" spans="1:24" ht="15.75" thickBot="1">
-      <c r="B100" s="239"/>
+      <c r="Z99" s="251"/>
+      <c r="AA99" s="243"/>
+    </row>
+    <row r="100" spans="1:27" ht="15.75" thickBot="1">
+      <c r="B100" s="277"/>
       <c r="C100" s="37" t="s">
         <v>34</v>
       </c>
@@ -9245,17 +10585,23 @@
         <v>1062735108</v>
       </c>
       <c r="J100" s="160">
-        <f t="shared" ref="J100" si="4">H100-F100</f>
+        <f t="shared" ref="J100" si="10">H100-F100</f>
         <v>5911</v>
       </c>
       <c r="K100" s="89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>949971068</v>
       </c>
+      <c r="M100" s="239" t="str">
+        <f t="shared" si="8"/>
+        <v>&amp; {483} &amp; {6394} &amp; {5911}\\&amp; {112764040} &amp; {1062735108} &amp; {949971068}\\</v>
+      </c>
       <c r="X100" s="31"/>
-    </row>
-    <row r="101" spans="1:24">
-      <c r="B101" s="240" t="s">
+      <c r="Z100" s="251"/>
+      <c r="AA100" s="243"/>
+    </row>
+    <row r="101" spans="1:27">
+      <c r="B101" s="278" t="s">
         <v>25</v>
       </c>
       <c r="C101" s="40" t="s">
@@ -9285,10 +10631,16 @@
       <c r="K101" s="164" t="s">
         <v>22</v>
       </c>
+      <c r="M101" s="239" t="str">
+        <f t="shared" si="8"/>
+        <v>&amp; {-} &amp; {6394} &amp; {-}\\&amp; {-} &amp; {1062735108} &amp; {-}\\</v>
+      </c>
       <c r="X101" s="31"/>
-    </row>
-    <row r="102" spans="1:24">
-      <c r="B102" s="241"/>
+      <c r="Z101" s="251"/>
+      <c r="AA101" s="243"/>
+    </row>
+    <row r="102" spans="1:27">
+      <c r="B102" s="279"/>
       <c r="C102" s="43" t="s">
         <v>30</v>
       </c>
@@ -9317,13 +10669,19 @@
         <v>5905</v>
       </c>
       <c r="K102" s="129">
-        <f t="shared" ref="K102:K103" si="5">I102-G102</f>
+        <f t="shared" ref="K102:K103" si="11">I102-G102</f>
         <v>958451412</v>
       </c>
+      <c r="M102" s="239" t="str">
+        <f t="shared" si="8"/>
+        <v>&amp; {489} &amp; {6394} &amp; {5905}\\&amp; {104283696} &amp; {1062735108} &amp; {958451412}\\</v>
+      </c>
       <c r="X102" s="31"/>
-    </row>
-    <row r="103" spans="1:24" ht="15.75" thickBot="1">
-      <c r="B103" s="242"/>
+      <c r="Z102" s="251"/>
+      <c r="AA102" s="243"/>
+    </row>
+    <row r="103" spans="1:27" ht="15.75" thickBot="1">
+      <c r="B103" s="280"/>
       <c r="C103" s="44" t="s">
         <v>34</v>
       </c>
@@ -9348,17 +10706,23 @@
         <v>1062735108</v>
       </c>
       <c r="J103" s="166">
-        <f t="shared" ref="J103" si="6">H103-F103</f>
+        <f t="shared" ref="J103" si="12">H103-F103</f>
         <v>5905</v>
       </c>
       <c r="K103" s="130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>958451412</v>
       </c>
+      <c r="M103" s="239" t="str">
+        <f t="shared" si="8"/>
+        <v>&amp; {489} &amp; {6394} &amp; {5905}\\&amp; {104283696} &amp; {1062735108} &amp; {958451412}\\</v>
+      </c>
       <c r="X103" s="31"/>
-    </row>
-    <row r="104" spans="1:24">
-      <c r="B104" s="243" t="s">
+      <c r="Z103" s="251"/>
+      <c r="AA103" s="243"/>
+    </row>
+    <row r="104" spans="1:27">
+      <c r="B104" s="281" t="s">
         <v>26</v>
       </c>
       <c r="C104" s="47" t="s">
@@ -9388,10 +10752,16 @@
       <c r="K104" s="131" t="s">
         <v>22</v>
       </c>
+      <c r="M104" s="239" t="str">
+        <f t="shared" si="8"/>
+        <v>&amp; {-} &amp; {6394} &amp; {-}\\&amp; {-} &amp; {1062735108} &amp; {-}\\</v>
+      </c>
       <c r="X104" s="31"/>
-    </row>
-    <row r="105" spans="1:24">
-      <c r="B105" s="244"/>
+      <c r="Z104" s="251"/>
+      <c r="AA104" s="243"/>
+    </row>
+    <row r="105" spans="1:27">
+      <c r="B105" s="282"/>
       <c r="C105" s="48" t="s">
         <v>30</v>
       </c>
@@ -9400,8 +10770,8 @@
         <v>619</v>
       </c>
       <c r="E105" s="104">
-        <f>E88+G88+I88</f>
-        <v>73734812</v>
+        <f>E88+G88+I88+K88+M88</f>
+        <v>132519124</v>
       </c>
       <c r="F105" s="87">
         <v>610</v>
@@ -9416,17 +10786,23 @@
         <v>1062735108</v>
       </c>
       <c r="J105" s="168">
-        <f t="shared" ref="J105:J106" si="7">H105-F105</f>
+        <f t="shared" ref="J105:J106" si="13">H105-F105</f>
         <v>5784</v>
       </c>
       <c r="K105" s="104">
-        <f t="shared" ref="K105:K106" si="8">I105-G105</f>
+        <f t="shared" ref="K105:K106" si="14">I105-G105</f>
         <v>932677639</v>
       </c>
+      <c r="M105" s="239" t="str">
+        <f t="shared" si="8"/>
+        <v>&amp; {610} &amp; {6394} &amp; {5784}\\&amp; {130057469} &amp; {1062735108} &amp; {932677639}\\</v>
+      </c>
       <c r="X105" s="31"/>
-    </row>
-    <row r="106" spans="1:24" ht="15.75" thickBot="1">
-      <c r="B106" s="245"/>
+      <c r="Z105" s="251"/>
+      <c r="AA105" s="243"/>
+    </row>
+    <row r="106" spans="1:27" ht="15.75" thickBot="1">
+      <c r="B106" s="283"/>
       <c r="C106" s="49" t="s">
         <v>34</v>
       </c>
@@ -9435,8 +10811,8 @@
         <v>619</v>
       </c>
       <c r="E106" s="132">
-        <f>E89+G89+I89</f>
-        <v>69787145</v>
+        <f>E89+G89+I89+K89+M89</f>
+        <v>132519124</v>
       </c>
       <c r="F106" s="133">
         <v>610</v>
@@ -9451,17 +10827,23 @@
         <v>1062735108</v>
       </c>
       <c r="J106" s="170">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5784</v>
       </c>
       <c r="K106" s="132">
+        <f t="shared" si="14"/>
+        <v>932677639</v>
+      </c>
+      <c r="M106" s="239" t="str">
         <f t="shared" si="8"/>
-        <v>932677639</v>
+        <v>&amp; {610} &amp; {6394} &amp; {5784}\\&amp; {130057469} &amp; {1062735108} &amp; {932677639}\\</v>
       </c>
       <c r="X106" s="31"/>
-    </row>
-    <row r="107" spans="1:24">
-      <c r="B107" s="235" t="s">
+      <c r="Z106" s="251"/>
+      <c r="AA106" s="243"/>
+    </row>
+    <row r="107" spans="1:27">
+      <c r="B107" s="273" t="s">
         <v>27</v>
       </c>
       <c r="C107" s="52" t="s">
@@ -9491,10 +10873,16 @@
       <c r="K107" s="134" t="s">
         <v>22</v>
       </c>
+      <c r="M107" s="239" t="str">
+        <f t="shared" si="8"/>
+        <v>&amp; {-} &amp; {6394} &amp; {-}\\&amp; {-} &amp; {1062735108} &amp; {-}\\</v>
+      </c>
       <c r="X107" s="31"/>
-    </row>
-    <row r="108" spans="1:24">
-      <c r="B108" s="236"/>
+      <c r="Z107" s="251"/>
+      <c r="AA107" s="243"/>
+    </row>
+    <row r="108" spans="1:27">
+      <c r="B108" s="274"/>
       <c r="C108" s="54" t="s">
         <v>30</v>
       </c>
@@ -9503,8 +10891,8 @@
         <v>606</v>
       </c>
       <c r="E108" s="92">
-        <f>E91+G91+I91</f>
-        <v>71333121</v>
+        <f>E91+G91+I91+K91+M91</f>
+        <v>130117433</v>
       </c>
       <c r="F108" s="63">
         <v>597</v>
@@ -9519,17 +10907,23 @@
         <v>1062735108</v>
       </c>
       <c r="J108" s="135">
-        <f t="shared" ref="J108:J109" si="9">H108-F108</f>
+        <f>H108-F108</f>
         <v>5797</v>
       </c>
       <c r="K108" s="92">
-        <f t="shared" ref="K108:K109" si="10">I108-G108</f>
+        <f t="shared" ref="K108:K109" si="15">I108-G108</f>
         <v>935079330</v>
       </c>
+      <c r="M108" s="239" t="str">
+        <f t="shared" si="8"/>
+        <v>&amp; {597} &amp; {6394} &amp; {5797}\\&amp; {127655778} &amp; {1062735108} &amp; {935079330}\\</v>
+      </c>
       <c r="X108" s="31"/>
-    </row>
-    <row r="109" spans="1:24">
-      <c r="B109" s="236"/>
+      <c r="Z108" s="251"/>
+      <c r="AA108" s="243"/>
+    </row>
+    <row r="109" spans="1:27">
+      <c r="B109" s="274"/>
       <c r="C109" s="54" t="s">
         <v>34</v>
       </c>
@@ -9538,8 +10932,8 @@
         <v>606</v>
       </c>
       <c r="E109" s="92">
-        <f>E92+G92+I92</f>
-        <v>67385454</v>
+        <f>E92+G92+I92+K92+M92</f>
+        <v>130117433</v>
       </c>
       <c r="F109" s="63">
         <v>597</v>
@@ -9554,19 +10948,26 @@
         <v>1062735108</v>
       </c>
       <c r="J109" s="135">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="J109" si="16">H109-F109</f>
         <v>5797</v>
       </c>
       <c r="K109" s="92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>935079330</v>
       </c>
+      <c r="M109" s="239" t="str">
+        <f t="shared" si="8"/>
+        <v>&amp; {597} &amp; {6394} &amp; {5797}\\&amp; {127655778} &amp; {1062735108} &amp; {935079330}\\</v>
+      </c>
       <c r="X109" s="31"/>
-    </row>
-    <row r="110" spans="1:24">
+      <c r="Z109" s="251"/>
+      <c r="AA109" s="243"/>
+    </row>
+    <row r="110" spans="1:27">
       <c r="X110" s="31"/>
-    </row>
-    <row r="111" spans="1:24" ht="15.75" thickBot="1">
+      <c r="AA110" s="243"/>
+    </row>
+    <row r="111" spans="1:27" ht="15.75" thickBot="1">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -9591,6 +10992,9 @@
       <c r="V111" s="10"/>
       <c r="W111" s="10"/>
       <c r="X111" s="32"/>
+      <c r="Y111" s="257"/>
+      <c r="Z111" s="240"/>
+      <c r="AA111" s="244"/>
     </row>
   </sheetData>
   <mergeCells count="50">
